--- a/valuation/trading-cost/output/sheets/Transaction_Cost_Analysis.xlsx
+++ b/valuation/trading-cost/output/sheets/Transaction_Cost_Analysis.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X70"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,31 +563,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>283.0299987792969</v>
+        <v>280.9400024414062</v>
       </c>
       <c r="C2" t="n">
-        <v>1755250.793650794</v>
+        <v>1749371.825396825</v>
       </c>
       <c r="D2" t="n">
-        <v>522.9912345987186</v>
+        <v>521.1545648403796</v>
       </c>
       <c r="E2" t="n">
-        <v>19.17865615579047</v>
+        <v>19.1900197816712</v>
       </c>
       <c r="F2" t="n">
-        <v>115235.815424</v>
+        <v>113617.477632</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>9.535888584077982</v>
+        <v>9.541538733360055</v>
       </c>
       <c r="I2" t="n">
-        <v>8.576955776288459</v>
+        <v>8.582037744276494</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9589328077895237</v>
+        <v>0.9595009890835601</v>
       </c>
       <c r="K2" t="n">
         <v>0.02</v>
@@ -599,28 +599,28 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>248.394314992172</v>
+        <v>245.7342624489557</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01006464258281751</v>
+        <v>0.01017359148490457</v>
       </c>
       <c r="P2" t="n">
-        <v>10.53588858407798</v>
+        <v>10.54153873336005</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2107177716815596</v>
+        <v>0.210830774667201</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4214355433631193</v>
+        <v>0.4216615493344021</v>
       </c>
       <c r="S2" t="n">
-        <v>105.3588858407798</v>
+        <v>105.4153873336005</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4214355433631193</v>
+        <v>0.4216615493344021</v>
       </c>
       <c r="U2" t="n">
-        <v>10.42143554336312</v>
+        <v>10.4216615493344</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -641,35 +641,35 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.20999908447266</v>
+        <v>386.6799926757812</v>
       </c>
       <c r="C3" t="n">
-        <v>6713722.222222222</v>
+        <v>3486298.412698413</v>
       </c>
       <c r="D3" t="n">
-        <v>207.1744962172567</v>
+        <v>1333.59380243723</v>
       </c>
       <c r="E3" t="n">
-        <v>19.01868409686717</v>
+        <v>22.39062217613007</v>
       </c>
       <c r="F3" t="n">
-        <v>33281.400832</v>
+        <v>384901.087232</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>9.456348301481192</v>
+        <v>11.13292175767473</v>
       </c>
       <c r="I3" t="n">
-        <v>8.505414096637834</v>
+        <v>10.01339064886822</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9509342048433582</v>
+        <v>1.119531108806504</v>
       </c>
       <c r="K3" t="n">
         <v>0.02</v>
@@ -681,28 +681,28 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>104.7676322044796</v>
+        <v>674.0409223439051</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02386233178507498</v>
+        <v>0.003708973620335273</v>
       </c>
       <c r="P3" t="n">
-        <v>10.95634830148119</v>
+        <v>11.63292175767473</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2191269660296238</v>
+        <v>0.2326584351534945</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4382539320592477</v>
+        <v>0.465316870306989</v>
       </c>
       <c r="S3" t="n">
-        <v>109.5634830148119</v>
+        <v>116.3292175767473</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4382539320592477</v>
+        <v>0.465316870306989</v>
       </c>
       <c r="U3" t="n">
-        <v>10.43825393205925</v>
+        <v>10.46531687030699</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -723,35 +723,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>ITW</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.6999969482422</v>
+        <v>245.75</v>
       </c>
       <c r="C4" t="n">
-        <v>2294022.619047619</v>
+        <v>1030984.126984127</v>
       </c>
       <c r="D4" t="n">
-        <v>298.9117556509974</v>
+        <v>260.1265780750754</v>
       </c>
       <c r="E4" t="n">
-        <v>19.38693524340544</v>
+        <v>22.55289230116584</v>
       </c>
       <c r="F4" t="n">
-        <v>40261.312512</v>
+        <v>72054.42355199999</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>9.639447778098468</v>
+        <v>11.21360466998599</v>
       </c>
       <c r="I4" t="n">
-        <v>8.670101015928196</v>
+        <v>10.0859600549277</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9693467621702717</v>
+        <v>1.127644615058292</v>
       </c>
       <c r="K4" t="n">
         <v>0.02</v>
@@ -763,28 +763,28 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>138.4442615591231</v>
+        <v>126.6821746031746</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0180578087661103</v>
+        <v>0.01973442599822052</v>
       </c>
       <c r="P4" t="n">
-        <v>11.13944777809847</v>
+        <v>12.71360466998599</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2227889555619694</v>
+        <v>0.2542720933997198</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4455779111239387</v>
+        <v>0.5085441867994396</v>
       </c>
       <c r="S4" t="n">
-        <v>111.3944777809847</v>
+        <v>127.1360466998599</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4455779111239387</v>
+        <v>0.5085441867994396</v>
       </c>
       <c r="U4" t="n">
-        <v>10.44557791112394</v>
+        <v>10.50854418679944</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -805,35 +805,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>566.3599853515625</v>
+        <v>523.6099853515625</v>
       </c>
       <c r="C5" t="n">
-        <v>2730548.80952381</v>
+        <v>21671121.82539682</v>
       </c>
       <c r="D5" t="n">
-        <v>1499.002695884247</v>
+        <v>9769.794723273581</v>
       </c>
       <c r="E5" t="n">
-        <v>22.26974642739885</v>
+        <v>24.59392938088071</v>
       </c>
       <c r="F5" t="n">
-        <v>514335.473664</v>
+        <v>3957673.1648</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>11.07282069203933</v>
+        <v>12.22843605493975</v>
       </c>
       <c r="I5" t="n">
-        <v>9.959333370669382</v>
+        <v>10.99873958589572</v>
       </c>
       <c r="J5" t="n">
-        <v>1.113487321369943</v>
+        <v>1.229696469044036</v>
       </c>
       <c r="K5" t="n">
         <v>0.02</v>
@@ -845,28 +845,28 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>773.2367918818157</v>
+        <v>5673.607890773979</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00323316224246881</v>
+        <v>0.0004406367250132536</v>
       </c>
       <c r="P5" t="n">
-        <v>11.57282069203933</v>
+        <v>12.72843605493976</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2314564138407865</v>
+        <v>0.2545687210987951</v>
       </c>
       <c r="R5" t="n">
-        <v>0.462912827681573</v>
+        <v>0.5091374421975903</v>
       </c>
       <c r="S5" t="n">
-        <v>115.7282069203932</v>
+        <v>127.2843605493975</v>
       </c>
       <c r="T5" t="n">
-        <v>0.462912827681573</v>
+        <v>0.5091374421975903</v>
       </c>
       <c r="U5" t="n">
-        <v>10.46291282768157</v>
+        <v>10.50913744219759</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -887,35 +887,35 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>GWW</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344.4100036621094</v>
+        <v>968.4099731445312</v>
       </c>
       <c r="C6" t="n">
-        <v>6361540.873015873</v>
+        <v>277734.126984127</v>
       </c>
       <c r="D6" t="n">
-        <v>2134.920972830507</v>
+        <v>288.7647489042159</v>
       </c>
       <c r="E6" t="n">
-        <v>22.29283189876847</v>
+        <v>23.6750542498363</v>
       </c>
       <c r="F6" t="n">
-        <v>670217.0111999999</v>
+        <v>46681.878528</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>11.08429910226282</v>
+        <v>11.77155884721767</v>
       </c>
       <c r="I6" t="n">
-        <v>9.969657507324401</v>
+        <v>10.58780613472585</v>
       </c>
       <c r="J6" t="n">
-        <v>1.114641594938423</v>
+        <v>1.183752712491815</v>
       </c>
       <c r="K6" t="n">
         <v>0.02</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1095.489157686028</v>
+        <v>134.4802492270091</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002282085571052736</v>
+        <v>0.01859009047328489</v>
       </c>
       <c r="P6" t="n">
-        <v>11.58429910226283</v>
+        <v>13.27155884721767</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2316859820452565</v>
+        <v>0.2654311769443533</v>
       </c>
       <c r="R6" t="n">
-        <v>0.463371964090513</v>
+        <v>0.5308623538887066</v>
       </c>
       <c r="S6" t="n">
-        <v>115.8429910226282</v>
+        <v>132.7155884721766</v>
       </c>
       <c r="T6" t="n">
-        <v>0.463371964090513</v>
+        <v>0.5308623538887066</v>
       </c>
       <c r="U6" t="n">
-        <v>10.46337196409051</v>
+        <v>10.53086235388871</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -969,35 +969,35 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>LMT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>388.8900146484375</v>
+        <v>485.4100036621094</v>
       </c>
       <c r="C7" t="n">
-        <v>3495336.904761905</v>
+        <v>1537855.158730159</v>
       </c>
       <c r="D7" t="n">
-        <v>1337.735285196569</v>
+        <v>721.7332794115954</v>
       </c>
       <c r="E7" t="n">
-        <v>22.4878075313025</v>
+        <v>26.14390362484361</v>
       </c>
       <c r="F7" t="n">
-        <v>393893.740544</v>
+        <v>112679.15776</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>11.18124363754995</v>
+        <v>12.99910432171287</v>
       </c>
       <c r="I7" t="n">
-        <v>10.05685326098482</v>
+        <v>11.69190914047069</v>
       </c>
       <c r="J7" t="n">
-        <v>1.124390376565125</v>
+        <v>1.30719518124218</v>
       </c>
       <c r="K7" t="n">
         <v>0.02</v>
@@ -1009,28 +1009,28 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>679.6508100470409</v>
+        <v>373.2451391155001</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003678359479667164</v>
+        <v>0.006698010872758825</v>
       </c>
       <c r="P7" t="n">
-        <v>11.68124363754995</v>
+        <v>13.99910432171287</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2336248727509989</v>
+        <v>0.2799820864342574</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4672497455019979</v>
+        <v>0.5599641728685149</v>
       </c>
       <c r="S7" t="n">
-        <v>116.8124363754995</v>
+        <v>139.9910432171287</v>
       </c>
       <c r="T7" t="n">
-        <v>0.4672497455019979</v>
+        <v>0.5599641728685149</v>
       </c>
       <c r="U7" t="n">
-        <v>10.467249745502</v>
+        <v>10.55996417286851</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1051,35 +1051,35 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>BKNG</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.75</v>
+        <v>5146.16015625</v>
       </c>
       <c r="C8" t="n">
-        <v>5136873.015873016</v>
+        <v>241348.0158730159</v>
       </c>
       <c r="D8" t="n">
-        <v>451.3618276853986</v>
+        <v>1235.823756866517</v>
       </c>
       <c r="E8" t="n">
-        <v>21.07574748652197</v>
+        <v>27.8750962696463</v>
       </c>
       <c r="F8" t="n">
-        <v>63848.988672</v>
+        <v>170313.940992</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>10.47914818562279</v>
+        <v>13.8598768411383</v>
       </c>
       <c r="I8" t="n">
-        <v>9.425360811296688</v>
+        <v>12.46612202765599</v>
       </c>
       <c r="J8" t="n">
-        <v>1.053787374326098</v>
+        <v>1.393754813482315</v>
       </c>
       <c r="K8" t="n">
         <v>0.02</v>
@@ -1091,28 +1091,28 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>202.264375</v>
+        <v>621.0077715378535</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01236006093510041</v>
+        <v>0.004025714515309592</v>
       </c>
       <c r="P8" t="n">
-        <v>11.97914818562279</v>
+        <v>14.3598768411383</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2395829637124557</v>
+        <v>0.2871975368227661</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4791659274249115</v>
+        <v>0.5743950736455321</v>
       </c>
       <c r="S8" t="n">
-        <v>119.7914818562279</v>
+        <v>143.598768411383</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4791659274249115</v>
+        <v>0.5743950736455321</v>
       </c>
       <c r="U8" t="n">
-        <v>10.47916592742491</v>
+        <v>10.57439507364553</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1133,35 +1133,35 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CLX</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>119.5899963378906</v>
+        <v>227.9900054931641</v>
       </c>
       <c r="C9" t="n">
-        <v>1575865.079365079</v>
+        <v>6480467.063492063</v>
       </c>
       <c r="D9" t="n">
-        <v>219.065700461377</v>
+        <v>1238.158695860029</v>
       </c>
       <c r="E9" t="n">
-        <v>21.50541017816245</v>
+        <v>28.78734487300987</v>
       </c>
       <c r="F9" t="n">
-        <v>14645.781504</v>
+        <v>402545.606656</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>10.69278231738554</v>
+        <v>14.31345924920652</v>
       </c>
       <c r="I9" t="n">
-        <v>9.617511808477419</v>
+        <v>12.87409200555602</v>
       </c>
       <c r="J9" t="n">
-        <v>1.075270508908122</v>
+        <v>1.439367243650494</v>
       </c>
       <c r="K9" t="n">
         <v>0.02</v>
@@ -1173,28 +1173,28 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>94.22884953513977</v>
+        <v>738.7408607019122</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02653115274497437</v>
+        <v>0.003384136620823482</v>
       </c>
       <c r="P9" t="n">
-        <v>12.19278231738554</v>
+        <v>14.81345924920651</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2438556463477108</v>
+        <v>0.2962691849841303</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4877112926954216</v>
+        <v>0.5925383699682606</v>
       </c>
       <c r="S9" t="n">
-        <v>121.9278231738554</v>
+        <v>148.1345924920652</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4877112926954216</v>
+        <v>0.5925383699682606</v>
       </c>
       <c r="U9" t="n">
-        <v>10.48771129269542</v>
+        <v>10.59253836996826</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1215,35 +1215,35 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>TYL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>327.3900146484375</v>
+        <v>508.6600036621094</v>
       </c>
       <c r="C10" t="n">
-        <v>1470813.492063492</v>
+        <v>295225.3968253968</v>
       </c>
       <c r="D10" t="n">
-        <v>398.6893953105417</v>
+        <v>169.9043007648063</v>
       </c>
       <c r="E10" t="n">
-        <v>21.77307237018303</v>
+        <v>27.11108362569539</v>
       </c>
       <c r="F10" t="n">
-        <v>63495.008256</v>
+        <v>22060.4928</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>10.8258675982595</v>
+        <v>13.47999936743204</v>
       </c>
       <c r="I10" t="n">
-        <v>9.737213979750345</v>
+        <v>12.12444518614727</v>
       </c>
       <c r="J10" t="n">
-        <v>1.088653618509152</v>
+        <v>1.35555418128477</v>
       </c>
       <c r="K10" t="n">
         <v>0.02</v>
@@ -1255,28 +1255,28 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>240.7648253558931</v>
+        <v>75.08467571517701</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01038357657230269</v>
+        <v>0.0332957421229785</v>
       </c>
       <c r="P10" t="n">
-        <v>12.3258675982595</v>
+        <v>14.97999936743204</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.24651735196519</v>
+        <v>0.2995999873486409</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4930347039303799</v>
+        <v>0.5991999746972817</v>
       </c>
       <c r="S10" t="n">
-        <v>123.258675982595</v>
+        <v>149.7999936743204</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4930347039303799</v>
+        <v>0.5991999746972817</v>
       </c>
       <c r="U10" t="n">
-        <v>10.49303470393038</v>
+        <v>10.59919997469728</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1297,35 +1297,35 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ITW</t>
+          <t>HCA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>252.3800048828125</v>
+        <v>447.0400085449219</v>
       </c>
       <c r="C11" t="n">
-        <v>1011667.063492064</v>
+        <v>1504871.825396825</v>
       </c>
       <c r="D11" t="n">
-        <v>255.248300653512</v>
+        <v>536.263999858703</v>
       </c>
       <c r="E11" t="n">
-        <v>21.90679411911245</v>
+        <v>28.21528436138566</v>
       </c>
       <c r="F11" t="n">
-        <v>74845.544448</v>
+        <v>109682.11456</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>10.89235586984124</v>
+        <v>14.0290229853783</v>
       </c>
       <c r="I11" t="n">
-        <v>9.797016163885614</v>
+        <v>12.61825876730902</v>
       </c>
       <c r="J11" t="n">
-        <v>1.095339705955623</v>
+        <v>1.410764218069283</v>
       </c>
       <c r="K11" t="n">
         <v>0.02</v>
@@ -1337,28 +1337,28 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>127.6622692119538</v>
+        <v>336.3689568422045</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01958291996086428</v>
+        <v>0.007432314870758974</v>
       </c>
       <c r="P11" t="n">
-        <v>12.39235586984124</v>
+        <v>15.0290229853783</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2478471173968247</v>
+        <v>0.300580459707566</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4956942347936494</v>
+        <v>0.6011609194151319</v>
       </c>
       <c r="S11" t="n">
-        <v>123.9235586984124</v>
+        <v>150.290229853783</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4956942347936494</v>
+        <v>0.6011609194151319</v>
       </c>
       <c r="U11" t="n">
-        <v>10.49569423479365</v>
+        <v>10.60116091941513</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1379,35 +1379,35 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>NVR</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>235.2899932861328</v>
+        <v>7430.919921875</v>
       </c>
       <c r="C12" t="n">
-        <v>902904.7619047619</v>
+        <v>22151.5873015873</v>
       </c>
       <c r="D12" t="n">
-        <v>255.7641699199316</v>
+        <v>173.8068908349646</v>
       </c>
       <c r="E12" t="n">
-        <v>22.22322000269277</v>
+        <v>27.34256185122388</v>
       </c>
       <c r="F12" t="n">
-        <v>33181.886464</v>
+        <v>20478.951424</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>11.04968712112546</v>
+        <v>13.59509348822701</v>
       </c>
       <c r="I12" t="n">
-        <v>9.938526120990819</v>
+        <v>12.22796539566582</v>
       </c>
       <c r="J12" t="n">
-        <v>1.111161000134638</v>
+        <v>1.367128092561194</v>
       </c>
       <c r="K12" t="n">
         <v>0.02</v>
@@ -1419,28 +1419,28 @@
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>106.2222276832944</v>
+        <v>82.30333569025917</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02353556364355156</v>
+        <v>0.03037543957402302</v>
       </c>
       <c r="P12" t="n">
-        <v>12.54968712112546</v>
+        <v>15.09509348822701</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2509937424225091</v>
+        <v>0.3019018697645403</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5019874848450182</v>
+        <v>0.6038037395290806</v>
       </c>
       <c r="S12" t="n">
-        <v>125.4968712112546</v>
+        <v>150.9509348822702</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5019874848450182</v>
+        <v>0.6038037395290806</v>
       </c>
       <c r="U12" t="n">
-        <v>10.50198748484502</v>
+        <v>10.60380373952908</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1461,35 +1461,35 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>DPZ</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>448.4400024414062</v>
+        <v>414.8599853515625</v>
       </c>
       <c r="C13" t="n">
-        <v>884292.8571428572</v>
+        <v>629032.1428571428</v>
       </c>
       <c r="D13" t="n">
-        <v>393.4958163046207</v>
+        <v>282.4202939209239</v>
       </c>
       <c r="E13" t="n">
-        <v>23.17510603395803</v>
+        <v>27.4320502775839</v>
       </c>
       <c r="F13" t="n">
-        <v>74487.76704000001</v>
+        <v>13874.985984</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>11.52297779723704</v>
+        <v>13.63958835045311</v>
       </c>
       <c r="I13" t="n">
-        <v>10.36422249553914</v>
+        <v>12.26798583657392</v>
       </c>
       <c r="J13" t="n">
-        <v>1.158755301697902</v>
+        <v>1.371602513879195</v>
       </c>
       <c r="K13" t="n">
         <v>0.02</v>
@@ -1501,28 +1501,28 @@
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>198.2761455080305</v>
+        <v>130.4801327856881</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01260867762783267</v>
+        <v>0.01916000502625343</v>
       </c>
       <c r="P13" t="n">
-        <v>13.02297779723704</v>
+        <v>15.13958835045311</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2604595559447409</v>
+        <v>0.3027917670090622</v>
       </c>
       <c r="R13" t="n">
-        <v>0.5209191118894817</v>
+        <v>0.6055835340181245</v>
       </c>
       <c r="S13" t="n">
-        <v>130.2297779723704</v>
+        <v>151.3958835045311</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5209191118894817</v>
+        <v>0.6055835340181245</v>
       </c>
       <c r="U13" t="n">
-        <v>10.52091911188948</v>
+        <v>10.60558353401813</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1543,35 +1543,35 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>NEE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>311.7999877929688</v>
+        <v>84.41000366210938</v>
       </c>
       <c r="C14" t="n">
-        <v>799278.9682539683</v>
+        <v>11307477.38095238</v>
       </c>
       <c r="D14" t="n">
-        <v>235.5887979037026</v>
+        <v>811.8328092653369</v>
       </c>
       <c r="E14" t="n">
-        <v>23.28542670762101</v>
+        <v>28.74131375655442</v>
       </c>
       <c r="F14" t="n">
-        <v>54400.909312</v>
+        <v>176913.825792</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>11.57783073604699</v>
+        <v>14.29057195228882</v>
       </c>
       <c r="I14" t="n">
-        <v>10.41355940066594</v>
+        <v>12.8535062644611</v>
       </c>
       <c r="J14" t="n">
-        <v>1.16427133538105</v>
+        <v>1.437065687827721</v>
       </c>
       <c r="K14" t="n">
         <v>0.02</v>
@@ -1583,28 +1583,28 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>124.607586272382</v>
+        <v>477.2321035677047</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02006298392246524</v>
+        <v>0.005238541123512924</v>
       </c>
       <c r="P14" t="n">
-        <v>13.07783073604699</v>
+        <v>15.29057195228883</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2615566147209398</v>
+        <v>0.3058114390457765</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5231132294418795</v>
+        <v>0.611622878091553</v>
       </c>
       <c r="S14" t="n">
-        <v>130.7783073604699</v>
+        <v>152.9057195228882</v>
       </c>
       <c r="T14" t="n">
-        <v>0.5231132294418795</v>
+        <v>0.611622878091553</v>
       </c>
       <c r="U14" t="n">
-        <v>10.52311322944188</v>
+        <v>10.61162287809155</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1625,35 +1625,35 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GWW</t>
+          <t>LYV</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.9199829101562</v>
+        <v>152.8600006103516</v>
       </c>
       <c r="C15" t="n">
-        <v>276860.7142857143</v>
+        <v>2473842.46031746</v>
       </c>
       <c r="D15" t="n">
-        <v>288.4685540801361</v>
+        <v>352.1487242960264</v>
       </c>
       <c r="E15" t="n">
-        <v>23.76447063775223</v>
+        <v>29.91273974204099</v>
       </c>
       <c r="F15" t="n">
-        <v>46808.158208</v>
+        <v>35537.076224</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>11.81601789094997</v>
+        <v>14.87302087839468</v>
       </c>
       <c r="I15" t="n">
-        <v>10.62779435906235</v>
+        <v>13.37738389129263</v>
       </c>
       <c r="J15" t="n">
-        <v>1.188223531887612</v>
+        <v>1.495636987102049</v>
       </c>
       <c r="K15" t="n">
         <v>0.02</v>
@@ -1665,28 +1665,28 @@
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>134.4047999913897</v>
+        <v>189.0757799970203</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01860052617287595</v>
+        <v>0.01322221175043889</v>
       </c>
       <c r="P15" t="n">
-        <v>13.31601789094997</v>
+        <v>16.37302087839468</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2663203578189993</v>
+        <v>0.3274604175678937</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5326407156379986</v>
+        <v>0.6549208351357874</v>
       </c>
       <c r="S15" t="n">
-        <v>133.1601789094996</v>
+        <v>163.7302087839468</v>
       </c>
       <c r="T15" t="n">
-        <v>0.5326407156379986</v>
+        <v>0.6549208351357874</v>
       </c>
       <c r="U15" t="n">
-        <v>10.532640715638</v>
+        <v>10.65492083513579</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1707,35 +1707,35 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.9200134277344</v>
+        <v>262.8200073242188</v>
       </c>
       <c r="C16" t="n">
-        <v>805241.2698412698</v>
+        <v>54059090.47619048</v>
       </c>
       <c r="D16" t="n">
-        <v>196.946923321257</v>
+        <v>12177.55724833975</v>
       </c>
       <c r="E16" t="n">
-        <v>24.87496409807397</v>
+        <v>32.64159488416391</v>
       </c>
       <c r="F16" t="n">
-        <v>25073.201152</v>
+        <v>3973662.900224</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>12.36817033713573</v>
+        <v>16.22984475520817</v>
       </c>
       <c r="I16" t="n">
-        <v>11.12442213223203</v>
+        <v>14.59776501099997</v>
       </c>
       <c r="J16" t="n">
-        <v>1.243748204903699</v>
+        <v>1.632079744208195</v>
       </c>
       <c r="K16" t="n">
         <v>0.02</v>
@@ -1747,28 +1747,28 @@
         <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>107.4675052792988</v>
+        <v>7103.905277446494</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02326284576442633</v>
+        <v>0.0003519191067956676</v>
       </c>
       <c r="P16" t="n">
-        <v>13.86817033713573</v>
+        <v>16.72984475520817</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2773634067427145</v>
+        <v>0.3345968951041634</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5547268134854291</v>
+        <v>0.6691937902083268</v>
       </c>
       <c r="S16" t="n">
-        <v>138.6817033713573</v>
+        <v>167.2984475520817</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5547268134854291</v>
+        <v>0.6691937902083268</v>
       </c>
       <c r="U16" t="n">
-        <v>10.55472681348543</v>
+        <v>10.66919379020833</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1789,35 +1789,35 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5141.8798828125</v>
+        <v>1094.68994140625</v>
       </c>
       <c r="C17" t="n">
-        <v>239422.6190476191</v>
+        <v>3793968.650793651</v>
       </c>
       <c r="D17" t="n">
-        <v>1222.717823088239</v>
+        <v>4030.768140291765</v>
       </c>
       <c r="E17" t="n">
-        <v>27.58491804542403</v>
+        <v>32.79472973062904</v>
       </c>
       <c r="F17" t="n">
-        <v>170133.42208</v>
+        <v>464147.90656</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>13.71559628293696</v>
+        <v>16.30598548281543</v>
       </c>
       <c r="I17" t="n">
-        <v>12.33635038066575</v>
+        <v>14.66624899628398</v>
       </c>
       <c r="J17" t="n">
-        <v>1.379245902271202</v>
+        <v>1.639736486531452</v>
       </c>
       <c r="K17" t="n">
         <v>0.02</v>
@@ -1829,28 +1829,28 @@
         <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>615.5411741856167</v>
+        <v>2076.609660017226</v>
       </c>
       <c r="O17" t="n">
-        <v>0.00406146673016243</v>
+        <v>0.00120388537534746</v>
       </c>
       <c r="P17" t="n">
-        <v>14.21559628293696</v>
+        <v>16.80598548281543</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.2843119256587391</v>
+        <v>0.3361197096563086</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5686238513174783</v>
+        <v>0.6722394193126172</v>
       </c>
       <c r="S17" t="n">
-        <v>142.1559628293696</v>
+        <v>168.0598548281543</v>
       </c>
       <c r="T17" t="n">
-        <v>0.5686238513174783</v>
+        <v>0.6722394193126172</v>
       </c>
       <c r="U17" t="n">
-        <v>10.56862385131748</v>
+        <v>10.67223941931262</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1871,35 +1871,35 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>OMC</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>178.4700012207031</v>
+        <v>79</v>
       </c>
       <c r="C18" t="n">
-        <v>1590205.555555556</v>
+        <v>3369242.857142857</v>
       </c>
       <c r="D18" t="n">
-        <v>264.849642735719</v>
+        <v>269.4055060869507</v>
       </c>
       <c r="E18" t="n">
-        <v>26.0920604423702</v>
+        <v>31.38362905175557</v>
       </c>
       <c r="F18" t="n">
-        <v>67647.29958399999</v>
+        <v>15292.983296</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>12.97332718655311</v>
+        <v>15.60436704066032</v>
       </c>
       <c r="I18" t="n">
-        <v>11.6687241644346</v>
+        <v>14.03518558807254</v>
       </c>
       <c r="J18" t="n">
-        <v>1.30460302211851</v>
+        <v>1.569181452587779</v>
       </c>
       <c r="K18" t="n">
         <v>0.02</v>
@@ -1911,28 +1911,28 @@
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>141.9019937205844</v>
+        <v>133.0850928571429</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01761779334068192</v>
+        <v>0.01878497393155496</v>
       </c>
       <c r="P18" t="n">
-        <v>14.47332718655311</v>
+        <v>17.10436704066032</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2894665437310622</v>
+        <v>0.3420873408132065</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5789330874621244</v>
+        <v>0.6841746816264129</v>
       </c>
       <c r="S18" t="n">
-        <v>144.7332718655311</v>
+        <v>171.0436704066032</v>
       </c>
       <c r="T18" t="n">
-        <v>0.5789330874621244</v>
+        <v>0.6841746816264129</v>
       </c>
       <c r="U18" t="n">
-        <v>10.57893308746212</v>
+        <v>10.68417468162641</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -1953,35 +1953,35 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>ADBE</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>232.0599975585938</v>
+        <v>353.5199890136719</v>
       </c>
       <c r="C19" t="n">
-        <v>6490550.396825396</v>
+        <v>3896767.857142857</v>
       </c>
       <c r="D19" t="n">
-        <v>1235.217035757713</v>
+        <v>1584.601008727718</v>
       </c>
       <c r="E19" t="n">
-        <v>28.82640534713655</v>
+        <v>33.39679107838026</v>
       </c>
       <c r="F19" t="n">
-        <v>408375.263232</v>
+        <v>149394.161664</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>14.33288064798898</v>
+        <v>16.60533857024237</v>
       </c>
       <c r="I19" t="n">
-        <v>12.89156038063215</v>
+        <v>14.93549901632336</v>
       </c>
       <c r="J19" t="n">
-        <v>1.441320267356828</v>
+        <v>1.669839553919013</v>
       </c>
       <c r="K19" t="n">
         <v>0.02</v>
@@ -1993,28 +1993,28 @@
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>753.0985546206156</v>
+        <v>688.7926650229863</v>
       </c>
       <c r="O19" t="n">
-        <v>0.003319618640430682</v>
+        <v>0.003629539231397841</v>
       </c>
       <c r="P19" t="n">
-        <v>14.83288064798898</v>
+        <v>17.10533857024237</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2966576129597797</v>
+        <v>0.3421067714048474</v>
       </c>
       <c r="R19" t="n">
-        <v>0.5933152259195593</v>
+        <v>0.6842135428096947</v>
       </c>
       <c r="S19" t="n">
-        <v>148.3288064798898</v>
+        <v>171.0533857024237</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5933152259195593</v>
+        <v>0.6842135428096947</v>
       </c>
       <c r="U19" t="n">
-        <v>10.59331522591956</v>
+        <v>10.68421354280969</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2035,35 +2035,35 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HCA</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>433.1499938964844</v>
+        <v>772</v>
       </c>
       <c r="C20" t="n">
-        <v>1492019.841269841</v>
+        <v>690579.3650793651</v>
       </c>
       <c r="D20" t="n">
-        <v>530.8985269758749</v>
+        <v>467.5197667476378</v>
       </c>
       <c r="E20" t="n">
-        <v>28.22221439487466</v>
+        <v>32.03108876597982</v>
       </c>
       <c r="F20" t="n">
-        <v>100979.892224</v>
+        <v>98232.369152</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>14.0324686922463</v>
+        <v>15.92629281311114</v>
       </c>
       <c r="I20" t="n">
-        <v>12.62135797250257</v>
+        <v>14.32473837481215</v>
       </c>
       <c r="J20" t="n">
-        <v>1.411110719743733</v>
+        <v>1.601554438298991</v>
       </c>
       <c r="K20" t="n">
         <v>0.02</v>
@@ -2075,28 +2075,28 @@
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>323.1341925697326</v>
+        <v>266.5636349206349</v>
       </c>
       <c r="O20" t="n">
-        <v>0.007736723805421791</v>
+        <v>0.009378623609872124</v>
       </c>
       <c r="P20" t="n">
-        <v>15.0324686922463</v>
+        <v>17.42629281311114</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.300649373844926</v>
+        <v>0.3485258562622228</v>
       </c>
       <c r="R20" t="n">
-        <v>0.601298747689852</v>
+        <v>0.6970517125244455</v>
       </c>
       <c r="S20" t="n">
-        <v>150.324686922463</v>
+        <v>174.2629281311114</v>
       </c>
       <c r="T20" t="n">
-        <v>0.601298747689852</v>
+        <v>0.6970517125244455</v>
       </c>
       <c r="U20" t="n">
-        <v>10.60129874768985</v>
+        <v>10.69705171252444</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2117,35 +2117,35 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>422.9400024414062</v>
+        <v>200.8399963378906</v>
       </c>
       <c r="C21" t="n">
-        <v>626183.3333333334</v>
+        <v>3283378.968253968</v>
       </c>
       <c r="D21" t="n">
-        <v>281.1644926175133</v>
+        <v>507.3402909035515</v>
       </c>
       <c r="E21" t="n">
-        <v>27.36512849912292</v>
+        <v>33.15030968298803</v>
       </c>
       <c r="F21" t="n">
-        <v>14244.943872</v>
+        <v>50040.823808</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>13.60631393236727</v>
+        <v>16.48278466941555</v>
       </c>
       <c r="I21" t="n">
-        <v>12.23805750741113</v>
+        <v>14.82526918526615</v>
       </c>
       <c r="J21" t="n">
-        <v>1.368256424956146</v>
+        <v>1.657515484149402</v>
       </c>
       <c r="K21" t="n">
         <v>0.02</v>
@@ -2157,28 +2157,28 @@
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>132.418990264384</v>
+        <v>329.7169099800171</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01887946732571039</v>
+        <v>0.007582262008192166</v>
       </c>
       <c r="P21" t="n">
-        <v>15.10631393236727</v>
+        <v>17.48278466941555</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3021262786473455</v>
+        <v>0.349655693388311</v>
       </c>
       <c r="R21" t="n">
-        <v>0.604252557294691</v>
+        <v>0.699311386776622</v>
       </c>
       <c r="S21" t="n">
-        <v>151.0631393236727</v>
+        <v>174.8278466941555</v>
       </c>
       <c r="T21" t="n">
-        <v>0.604252557294691</v>
+        <v>0.699311386776622</v>
       </c>
       <c r="U21" t="n">
-        <v>10.60425255729469</v>
+        <v>10.69931138677662</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2199,35 +2199,35 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NVR</t>
+          <t>PANW</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7681.080078125</v>
+        <v>217.1100006103516</v>
       </c>
       <c r="C22" t="n">
-        <v>22115.47619047619</v>
+        <v>6001398.015873016</v>
       </c>
       <c r="D22" t="n">
-        <v>174.2425158653807</v>
+        <v>1139.963409337114</v>
       </c>
       <c r="E22" t="n">
-        <v>27.37094948146912</v>
+        <v>35.47433764306142</v>
       </c>
       <c r="F22" t="n">
-        <v>21470.507008</v>
+        <v>148667.92448</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>13.60920820392897</v>
+        <v>17.63832296748608</v>
       </c>
       <c r="I22" t="n">
-        <v>12.24066072985551</v>
+        <v>15.864606085333</v>
       </c>
       <c r="J22" t="n">
-        <v>1.368547474073456</v>
+        <v>1.773716882153072</v>
       </c>
       <c r="K22" t="n">
         <v>0.02</v>
@@ -2239,28 +2239,28 @@
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>84.93537179245722</v>
+        <v>651.4817634445766</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0294341444234664</v>
+        <v>0.003837405957124204</v>
       </c>
       <c r="P22" t="n">
-        <v>15.10920820392897</v>
+        <v>18.13832296748608</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.3021841640785795</v>
+        <v>0.3627664593497215</v>
       </c>
       <c r="R22" t="n">
-        <v>0.6043683281571589</v>
+        <v>0.725532918699443</v>
       </c>
       <c r="S22" t="n">
-        <v>151.0920820392897</v>
+        <v>181.3832296748608</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6043683281571589</v>
+        <v>0.725532918699443</v>
       </c>
       <c r="U22" t="n">
-        <v>10.60436832815716</v>
+        <v>10.72553291869944</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2281,35 +2281,35 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>CSL</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.239990234375</v>
+        <v>339.010009765625</v>
       </c>
       <c r="C23" t="n">
-        <v>54026256.74603175</v>
+        <v>450068.253968254</v>
       </c>
       <c r="D23" t="n">
-        <v>12146.90348987271</v>
+        <v>169.4467233006864</v>
       </c>
       <c r="E23" t="n">
-        <v>32.60000789337284</v>
+        <v>35.37194255307531</v>
       </c>
       <c r="F23" t="n">
-        <v>3909700.8128</v>
+        <v>14497.415168</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>16.20916713799092</v>
+        <v>17.58741073663253</v>
       </c>
       <c r="I23" t="n">
-        <v>14.57916674332228</v>
+        <v>15.81881360897877</v>
       </c>
       <c r="J23" t="n">
-        <v>1.630000394668642</v>
+        <v>1.768597127653766</v>
       </c>
       <c r="K23" t="n">
         <v>0.02</v>
@@ -2321,28 +2321,28 @@
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>7083.922520739602</v>
+        <v>76.28882158648778</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0003529118214775429</v>
+        <v>0.03277020077136436</v>
       </c>
       <c r="P23" t="n">
-        <v>16.70916713799092</v>
+        <v>19.08741073663253</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3341833427598184</v>
+        <v>0.3817482147326507</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6683666855196368</v>
+        <v>0.7634964294653014</v>
       </c>
       <c r="S23" t="n">
-        <v>167.0916713799092</v>
+        <v>190.8741073663253</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6683666855196368</v>
+        <v>0.7634964294653014</v>
       </c>
       <c r="U23" t="n">
-        <v>10.66836668551964</v>
+        <v>10.7634964294653</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2363,35 +2363,35 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>LII</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>740.010009765625</v>
+        <v>496.239990234375</v>
       </c>
       <c r="C24" t="n">
-        <v>691540.873015873</v>
+        <v>417439.6825396825</v>
       </c>
       <c r="D24" t="n">
-        <v>466.7608640541757</v>
+        <v>244.4008760861693</v>
       </c>
       <c r="E24" t="n">
-        <v>31.73810639279702</v>
+        <v>35.57372933790853</v>
       </c>
       <c r="F24" t="n">
-        <v>95759.695872</v>
+        <v>17655.113728</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>15.78061799392281</v>
+        <v>17.68774186944384</v>
       </c>
       <c r="I24" t="n">
-        <v>14.19371267428296</v>
+        <v>15.90905540254841</v>
       </c>
       <c r="J24" t="n">
-        <v>1.586905319639851</v>
+        <v>1.778686466895427</v>
       </c>
       <c r="K24" t="n">
         <v>0.02</v>
@@ -2403,28 +2403,28 @@
         <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>255.8735840969026</v>
+        <v>103.5751319934663</v>
       </c>
       <c r="O24" t="n">
-        <v>0.009770449766526969</v>
+        <v>0.02413706796104014</v>
       </c>
       <c r="P24" t="n">
-        <v>17.28061799392281</v>
+        <v>19.18774186944384</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3456123598784561</v>
+        <v>0.3837548373888768</v>
       </c>
       <c r="R24" t="n">
-        <v>0.6912247197569122</v>
+        <v>0.7675096747777536</v>
       </c>
       <c r="S24" t="n">
-        <v>172.8061799392281</v>
+        <v>191.8774186944384</v>
       </c>
       <c r="T24" t="n">
-        <v>0.6912247197569122</v>
+        <v>0.7675096747777536</v>
       </c>
       <c r="U24" t="n">
-        <v>10.69122471975691</v>
+        <v>10.76750967477775</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2445,35 +2445,35 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>WSO</t>
+          <t>NTAP</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>378.5599975585938</v>
+        <v>116.6399993896484</v>
       </c>
       <c r="C25" t="n">
-        <v>315990.0793650793</v>
+        <v>2018517.063492063</v>
       </c>
       <c r="D25" t="n">
-        <v>144.8964850655861</v>
+        <v>218.8748234113982</v>
       </c>
       <c r="E25" t="n">
-        <v>32.30647017471796</v>
+        <v>37.05685434138264</v>
       </c>
       <c r="F25" t="n">
-        <v>15541.997568</v>
+        <v>23298.459648</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>16.06321619348367</v>
+        <v>18.42517178499708</v>
       </c>
       <c r="I25" t="n">
-        <v>14.44789268474777</v>
+        <v>16.57232906792795</v>
       </c>
       <c r="J25" t="n">
-        <v>1.615323508735898</v>
+        <v>1.852842717069132</v>
       </c>
       <c r="K25" t="n">
         <v>0.02</v>
@@ -2485,28 +2485,28 @@
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>59.81060183649215</v>
+        <v>117.7199145268546</v>
       </c>
       <c r="O25" t="n">
-        <v>0.04179860966512929</v>
+        <v>0.02123684858291069</v>
       </c>
       <c r="P25" t="n">
-        <v>17.56321619348367</v>
+        <v>19.92517178499709</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3512643238696734</v>
+        <v>0.3985034356999417</v>
       </c>
       <c r="R25" t="n">
-        <v>0.7025286477393468</v>
+        <v>0.7970068713998835</v>
       </c>
       <c r="S25" t="n">
-        <v>175.6321619348367</v>
+        <v>199.2517178499708</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7025286477393468</v>
+        <v>0.7970068713998835</v>
       </c>
       <c r="U25" t="n">
-        <v>10.70252864773935</v>
+        <v>10.79700687139988</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2527,35 +2527,35 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>NOW</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>534.75</v>
+        <v>930.1699829101562</v>
       </c>
       <c r="C26" t="n">
-        <v>404878.9682539682</v>
+        <v>1567475</v>
       </c>
       <c r="D26" t="n">
-        <v>237.608538186105</v>
+        <v>1509.658433936394</v>
       </c>
       <c r="E26" t="n">
-        <v>34.00992223687248</v>
+        <v>39.58599257317549</v>
       </c>
       <c r="F26" t="n">
-        <v>19373.674496</v>
+        <v>196117.905408</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>16.91019571806934</v>
+        <v>19.68269369874321</v>
       </c>
       <c r="I26" t="n">
-        <v>15.20969960622571</v>
+        <v>17.70339407008444</v>
       </c>
       <c r="J26" t="n">
-        <v>1.700496111843624</v>
+        <v>1.979299628658774</v>
       </c>
       <c r="K26" t="n">
         <v>0.02</v>
@@ -2567,28 +2567,28 @@
         <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>108.2545141369048</v>
+        <v>729.0090969810486</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02309372518949518</v>
+        <v>0.003429312487804237</v>
       </c>
       <c r="P26" t="n">
-        <v>18.41019571806934</v>
+        <v>20.18269369874322</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3682039143613868</v>
+        <v>0.4036538739748644</v>
       </c>
       <c r="R26" t="n">
-        <v>0.7364078287227735</v>
+        <v>0.8073077479497287</v>
       </c>
       <c r="S26" t="n">
-        <v>184.1019571806934</v>
+        <v>201.8269369874322</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7364078287227735</v>
+        <v>0.8073077479497287</v>
       </c>
       <c r="U26" t="n">
-        <v>10.73640782872277</v>
+        <v>10.80730774794973</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2609,35 +2609,35 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>329.3200073242188</v>
+        <v>125.1699981689453</v>
       </c>
       <c r="C27" t="n">
-        <v>446614.6825396825</v>
+        <v>4118646.825396826</v>
       </c>
       <c r="D27" t="n">
-        <v>169.0478744580238</v>
+        <v>748.6815722422173</v>
       </c>
       <c r="E27" t="n">
-        <v>35.35365849570234</v>
+        <v>38.67671263097839</v>
       </c>
       <c r="F27" t="n">
-        <v>14370.445312</v>
+        <v>68875.96851200001</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>17.5783196547258</v>
+        <v>19.2305873493674</v>
       </c>
       <c r="I27" t="n">
-        <v>15.81063672994068</v>
+        <v>17.29675171781848</v>
       </c>
       <c r="J27" t="n">
-        <v>1.767682924785117</v>
+        <v>1.933835631548919</v>
       </c>
       <c r="K27" t="n">
         <v>0.02</v>
@@ -2649,28 +2649,28 @@
         <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>73.53957526253595</v>
+        <v>257.7655077967266</v>
       </c>
       <c r="O27" t="n">
-        <v>0.03399530104810929</v>
+        <v>0.009698737512900662</v>
       </c>
       <c r="P27" t="n">
-        <v>19.0783196547258</v>
+        <v>20.2305873493674</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.3815663930945159</v>
+        <v>0.404611746987348</v>
       </c>
       <c r="R27" t="n">
-        <v>0.7631327861890318</v>
+        <v>0.809223493974696</v>
       </c>
       <c r="S27" t="n">
-        <v>190.7831965472579</v>
+        <v>202.305873493674</v>
       </c>
       <c r="T27" t="n">
-        <v>0.7631327861890318</v>
+        <v>0.809223493974696</v>
       </c>
       <c r="U27" t="n">
-        <v>10.76313278618903</v>
+        <v>10.8092234939747</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2695,31 +2695,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1000.289978027344</v>
+        <v>913.3300170898438</v>
       </c>
       <c r="C28" t="n">
-        <v>597132.1428571428</v>
+        <v>600651.1904761905</v>
       </c>
       <c r="D28" t="n">
-        <v>462.3240913726711</v>
+        <v>466.2183027690028</v>
       </c>
       <c r="E28" t="n">
-        <v>37.02068259051573</v>
+        <v>37.81141654841644</v>
       </c>
       <c r="F28" t="n">
-        <v>64875.900928</v>
+        <v>57277.947904</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>18.40718669869302</v>
+        <v>18.80035037298475</v>
       </c>
       <c r="I28" t="n">
-        <v>16.55615256916724</v>
+        <v>16.90977954556393</v>
       </c>
       <c r="J28" t="n">
-        <v>1.851034129525786</v>
+        <v>1.890570827420822</v>
       </c>
       <c r="K28" t="n">
         <v>0.02</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>298.6526490289961</v>
+        <v>274.2963810313271</v>
       </c>
       <c r="O28" t="n">
-        <v>0.008370928595906329</v>
+        <v>0.009114228888475484</v>
       </c>
       <c r="P28" t="n">
-        <v>19.90718669869302</v>
+        <v>20.30035037298475</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.3981437339738604</v>
+        <v>0.406007007459695</v>
       </c>
       <c r="R28" t="n">
-        <v>0.7962874679477209</v>
+        <v>0.81201401491939</v>
       </c>
       <c r="S28" t="n">
-        <v>199.0718669869302</v>
+        <v>203.0035037298475</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7962874679477209</v>
+        <v>0.81201401491939</v>
       </c>
       <c r="U28" t="n">
-        <v>10.79628746794772</v>
+        <v>10.81201401491939</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2777,31 +2777,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>523.719970703125</v>
+        <v>517.6599731445312</v>
       </c>
       <c r="C29" t="n">
-        <v>873028.1746031746</v>
+        <v>862043.253968254</v>
       </c>
       <c r="D29" t="n">
-        <v>378.7885297157386</v>
+        <v>376.1177846797013</v>
       </c>
       <c r="E29" t="n">
-        <v>38.13470758155514</v>
+        <v>38.1616557559383</v>
       </c>
       <c r="F29" t="n">
-        <v>24000.507904</v>
+        <v>23491.715072</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>18.96109506996454</v>
+        <v>18.97449406864175</v>
       </c>
       <c r="I29" t="n">
-        <v>17.05435969088678</v>
+        <v>17.06641128084483</v>
       </c>
       <c r="J29" t="n">
-        <v>1.906735379077757</v>
+        <v>1.908082787796915</v>
       </c>
       <c r="K29" t="n">
         <v>0.02</v>
@@ -2813,28 +2813,28 @@
         <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>228.6111450130886</v>
+        <v>223.1226438493154</v>
       </c>
       <c r="O29" t="n">
-        <v>0.01093559983638098</v>
+        <v>0.0112046001108178</v>
       </c>
       <c r="P29" t="n">
-        <v>20.46109506996454</v>
+        <v>20.47449406864175</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.4092219013992907</v>
+        <v>0.4094898813728349</v>
       </c>
       <c r="R29" t="n">
-        <v>0.8184438027985814</v>
+        <v>0.8189797627456699</v>
       </c>
       <c r="S29" t="n">
-        <v>204.6109506996453</v>
+        <v>204.7449406864175</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8184438027985814</v>
+        <v>0.8189797627456699</v>
       </c>
       <c r="U29" t="n">
-        <v>10.81844380279858</v>
+        <v>10.81897976274567</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2859,31 +2859,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>576.77001953125</v>
+        <v>577.9500122070312</v>
       </c>
       <c r="C30" t="n">
-        <v>1051761.904761905</v>
+        <v>1048119.841269841</v>
       </c>
       <c r="D30" t="n">
-        <v>672.9971792323777</v>
+        <v>664.0731288730245</v>
       </c>
       <c r="E30" t="n">
-        <v>39.68744490121857</v>
+        <v>39.66731570506528</v>
       </c>
       <c r="F30" t="n">
-        <v>61599.576064</v>
+        <v>61783.257088</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>19.73313717554135</v>
+        <v>19.72312866554746</v>
       </c>
       <c r="I30" t="n">
-        <v>17.74876493048043</v>
+        <v>17.7397628802942</v>
       </c>
       <c r="J30" t="n">
-        <v>1.984372245060928</v>
+        <v>1.983365785253264</v>
       </c>
       <c r="K30" t="n">
         <v>0.02</v>
@@ -2895,28 +2895,28 @@
         <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>303.3123671758743</v>
+        <v>302.8804375281683</v>
       </c>
       <c r="O30" t="n">
-        <v>0.008242327944875345</v>
+        <v>0.008254082107126833</v>
       </c>
       <c r="P30" t="n">
-        <v>20.73313717554136</v>
+        <v>20.72312866554746</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.4146627435108272</v>
+        <v>0.4144625733109492</v>
       </c>
       <c r="R30" t="n">
-        <v>0.8293254870216543</v>
+        <v>0.8289251466218984</v>
       </c>
       <c r="S30" t="n">
-        <v>207.3313717554136</v>
+        <v>207.2312866554746</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8293254870216543</v>
+        <v>0.8289251466218984</v>
       </c>
       <c r="U30" t="n">
-        <v>10.82932548702165</v>
+        <v>10.8289251466219</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -2941,31 +2941,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>808.9600219726562</v>
+        <v>825.4500122070312</v>
       </c>
       <c r="C31" t="n">
-        <v>4053118.650793651</v>
+        <v>4062684.126984127</v>
       </c>
       <c r="D31" t="n">
-        <v>3195.809738255611</v>
+        <v>3197.480801163043</v>
       </c>
       <c r="E31" t="n">
-        <v>41.04484957129937</v>
+        <v>41.08882316075395</v>
       </c>
       <c r="F31" t="n">
-        <v>722086.9857280001</v>
+        <v>739325.771776</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>20.40805723210067</v>
+        <v>20.42992149862041</v>
       </c>
       <c r="I31" t="n">
-        <v>18.3558147535357</v>
+        <v>18.37548034058272</v>
       </c>
       <c r="J31" t="n">
-        <v>2.052242478564969</v>
+        <v>2.054441158037697</v>
       </c>
       <c r="K31" t="n">
         <v>0.02</v>
@@ -2977,28 +2977,28 @@
         <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>1639.405476401907</v>
+        <v>1676.77133110618</v>
       </c>
       <c r="O31" t="n">
-        <v>0.001524943057703385</v>
+        <v>0.001490960606030119</v>
       </c>
       <c r="P31" t="n">
-        <v>20.90805723210067</v>
+        <v>20.92992149862041</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4181611446420134</v>
+        <v>0.4185984299724081</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8363222892840267</v>
+        <v>0.8371968599448163</v>
       </c>
       <c r="S31" t="n">
-        <v>209.0805723210067</v>
+        <v>209.2992149862041</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8363222892840267</v>
+        <v>0.8371968599448163</v>
       </c>
       <c r="U31" t="n">
-        <v>10.83632228928403</v>
+        <v>10.83719685994482</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3019,35 +3019,35 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>ODFL</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>343.1799926757812</v>
+        <v>136.1199951171875</v>
       </c>
       <c r="C32" t="n">
-        <v>606417.8571428572</v>
+        <v>1804441.26984127</v>
       </c>
       <c r="D32" t="n">
-        <v>210.8534142408773</v>
+        <v>306.7773180798727</v>
       </c>
       <c r="E32" t="n">
-        <v>41.22767002095673</v>
+        <v>40.61294363993196</v>
       </c>
       <c r="F32" t="n">
-        <v>20856.659968</v>
+        <v>28557.647872</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>20.49895804520572</v>
+        <v>20.19330773104772</v>
       </c>
       <c r="I32" t="n">
-        <v>18.43757454415789</v>
+        <v>18.16266054905112</v>
       </c>
       <c r="J32" t="n">
-        <v>2.061383501047836</v>
+        <v>2.030647181996598</v>
       </c>
       <c r="K32" t="n">
         <v>0.02</v>
@@ -3059,28 +3059,28 @@
         <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>104.0552378863743</v>
+        <v>122.8102684200226</v>
       </c>
       <c r="O32" t="n">
-        <v>0.02402570068341909</v>
+        <v>0.02035660398892514</v>
       </c>
       <c r="P32" t="n">
-        <v>21.99895804520572</v>
+        <v>21.69330773104772</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.4399791609041144</v>
+        <v>0.4338661546209545</v>
       </c>
       <c r="R32" t="n">
-        <v>0.8799583218082287</v>
+        <v>0.8677323092419089</v>
       </c>
       <c r="S32" t="n">
-        <v>219.9895804520572</v>
+        <v>216.9330773104772</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8799583218082287</v>
+        <v>0.8677323092419089</v>
       </c>
       <c r="U32" t="n">
-        <v>10.87995832180823</v>
+        <v>10.86773230924191</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3105,31 +3105,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1152.890014648438</v>
+        <v>1182.819946289062</v>
       </c>
       <c r="C33" t="n">
-        <v>1127813.492063492</v>
+        <v>1124725</v>
       </c>
       <c r="D33" t="n">
-        <v>886.0570162441228</v>
+        <v>892.2750944109598</v>
       </c>
       <c r="E33" t="n">
-        <v>42.24629141040617</v>
+        <v>42.49445591691391</v>
       </c>
       <c r="F33" t="n">
-        <v>151332.651008</v>
+        <v>160079.003648</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>21.00543044870704</v>
+        <v>21.12882121526323</v>
       </c>
       <c r="I33" t="n">
-        <v>18.89311587818673</v>
+        <v>19.00409841941753</v>
       </c>
       <c r="J33" t="n">
-        <v>2.112314570520308</v>
+        <v>2.124722795845696</v>
       </c>
       <c r="K33" t="n">
         <v>0.02</v>
@@ -3141,28 +3141,28 @@
         <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>650.1224566928925</v>
+        <v>665.1735820449829</v>
       </c>
       <c r="O33" t="n">
-        <v>0.003845429386822367</v>
+        <v>0.003758417452951304</v>
       </c>
       <c r="P33" t="n">
-        <v>22.00543044870703</v>
+        <v>22.12882121526323</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.4401086089741407</v>
+        <v>0.4425764243052645</v>
       </c>
       <c r="R33" t="n">
-        <v>0.8802172179482814</v>
+        <v>0.885152848610529</v>
       </c>
       <c r="S33" t="n">
-        <v>220.0543044870704</v>
+        <v>221.2882121526323</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8802172179482814</v>
+        <v>0.885152848610529</v>
       </c>
       <c r="U33" t="n">
-        <v>10.88021721794828</v>
+        <v>10.88515284861053</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3187,31 +3187,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>84.86000061035156</v>
+        <v>85.55999755859375</v>
       </c>
       <c r="C34" t="n">
-        <v>5395949.206349206</v>
+        <v>5399730.158730159</v>
       </c>
       <c r="D34" t="n">
-        <v>513.267399727733</v>
+        <v>513.9165326351753</v>
       </c>
       <c r="E34" t="n">
-        <v>42.75665368734153</v>
+        <v>42.7158850655106</v>
       </c>
       <c r="F34" t="n">
-        <v>64914.2272</v>
+        <v>65423.794176</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>21.25918951142962</v>
+        <v>21.23891879838548</v>
       </c>
       <c r="I34" t="n">
-        <v>19.12135682706254</v>
+        <v>19.10312454510995</v>
       </c>
       <c r="J34" t="n">
-        <v>2.137832684367077</v>
+        <v>2.13579425327553</v>
       </c>
       <c r="K34" t="n">
         <v>0.02</v>
@@ -3223,28 +3223,28 @@
         <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>228.9501264721098</v>
+        <v>231.0004495990087</v>
       </c>
       <c r="O34" t="n">
-        <v>0.01091940868748349</v>
+        <v>0.01082248975852525</v>
       </c>
       <c r="P34" t="n">
-        <v>22.25918951142962</v>
+        <v>22.23891879838548</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4451837902285923</v>
+        <v>0.4447783759677096</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8903675804571847</v>
+        <v>0.8895567519354192</v>
       </c>
       <c r="S34" t="n">
-        <v>222.5918951142962</v>
+        <v>222.3891879838548</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8903675804571847</v>
+        <v>0.8895567519354192</v>
       </c>
       <c r="U34" t="n">
-        <v>10.89036758045718</v>
+        <v>10.88955675193542</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3269,31 +3269,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>643.4099731445312</v>
+        <v>640.8499755859375</v>
       </c>
       <c r="C35" t="n">
-        <v>661234.126984127</v>
+        <v>656611.5079365079</v>
       </c>
       <c r="D35" t="n">
-        <v>329.9068396370485</v>
+        <v>329.4706394099944</v>
       </c>
       <c r="E35" t="n">
-        <v>42.59220084822603</v>
+        <v>42.55502704133844</v>
       </c>
       <c r="F35" t="n">
-        <v>51112.198144</v>
+        <v>51811.037184</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
       </c>
       <c r="H35" t="n">
-        <v>21.17742132400282</v>
+        <v>21.15893800182182</v>
       </c>
       <c r="I35" t="n">
-        <v>19.04781128159152</v>
+        <v>19.0311866497549</v>
       </c>
       <c r="J35" t="n">
-        <v>2.129610042411301</v>
+        <v>2.127751352066922</v>
       </c>
       <c r="K35" t="n">
         <v>0.02</v>
@@ -3305,28 +3305,28 @@
         <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>212.7223159425524</v>
+        <v>210.3947344152784</v>
       </c>
       <c r="O35" t="n">
-        <v>0.01175241059652222</v>
+        <v>0.01188242665363234</v>
       </c>
       <c r="P35" t="n">
-        <v>22.67742132400282</v>
+        <v>22.65893800182182</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.4535484264800564</v>
+        <v>0.4531787600364365</v>
       </c>
       <c r="R35" t="n">
-        <v>0.9070968529601128</v>
+        <v>0.906357520072873</v>
       </c>
       <c r="S35" t="n">
-        <v>226.7742132400282</v>
+        <v>226.5893800182182</v>
       </c>
       <c r="T35" t="n">
-        <v>0.9070968529601128</v>
+        <v>0.906357520072873</v>
       </c>
       <c r="U35" t="n">
-        <v>10.90709685296011</v>
+        <v>10.90635752007287</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3347,35 +3347,35 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>DXCM</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>156.2949981689453</v>
+        <v>70.33000183105469</v>
       </c>
       <c r="C36" t="n">
-        <v>5421748.80952381</v>
+        <v>4172245.634920635</v>
       </c>
       <c r="D36" t="n">
-        <v>704.7154694246757</v>
+        <v>325.5821815305338</v>
       </c>
       <c r="E36" t="n">
-        <v>45.00919534538463</v>
+        <v>42.60705837237843</v>
       </c>
       <c r="F36" t="n">
-        <v>53733.933056</v>
+        <v>27715.57376</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
-        <v>22.37918384823867</v>
+        <v>21.18480868700686</v>
       </c>
       <c r="I36" t="n">
-        <v>20.12872408096944</v>
+        <v>19.05445576838794</v>
       </c>
       <c r="J36" t="n">
-        <v>2.250459767269232</v>
+        <v>2.130352918618922</v>
       </c>
       <c r="K36" t="n">
         <v>0.02</v>
@@ -3387,28 +3387,28 @@
         <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>423.6961101285026</v>
+        <v>146.7170215717891</v>
       </c>
       <c r="O36" t="n">
-        <v>0.00590045539771837</v>
+        <v>0.01703960435685878</v>
       </c>
       <c r="P36" t="n">
-        <v>23.37918384823867</v>
+        <v>22.68480868700686</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.4675836769647734</v>
+        <v>0.4536961737401373</v>
       </c>
       <c r="R36" t="n">
-        <v>0.9351673539295469</v>
+        <v>0.9073923474802745</v>
       </c>
       <c r="S36" t="n">
-        <v>233.7918384823867</v>
+        <v>226.8480868700686</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9351673539295469</v>
+        <v>0.9073923474802745</v>
       </c>
       <c r="U36" t="n">
-        <v>10.93516735392955</v>
+        <v>10.90739234748028</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3429,35 +3429,35 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>EPAM</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37.45999908447266</v>
+        <v>159.3999938964844</v>
       </c>
       <c r="C37" t="n">
-        <v>6468171.825396826</v>
+        <v>737381.3492063492</v>
       </c>
       <c r="D37" t="n">
-        <v>237.8598317393946</v>
+        <v>140.1381549165019</v>
       </c>
       <c r="E37" t="n">
-        <v>44.99085703136269</v>
+        <v>43.75053779905949</v>
       </c>
       <c r="F37" t="n">
-        <v>15317.341184</v>
+        <v>9121.482752</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>22.37006578918841</v>
+        <v>21.75336220412718</v>
       </c>
       <c r="I37" t="n">
-        <v>20.12052293762028</v>
+        <v>19.56583531417421</v>
       </c>
       <c r="J37" t="n">
-        <v>2.249542851568135</v>
+        <v>2.187526889952975</v>
       </c>
       <c r="K37" t="n">
         <v>0.02</v>
@@ -3469,28 +3469,28 @@
         <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>121.1488553287885</v>
+        <v>58.76929128143674</v>
       </c>
       <c r="O37" t="n">
-        <v>0.02063577070716183</v>
+        <v>0.04253922321485722</v>
       </c>
       <c r="P37" t="n">
-        <v>23.87006578918841</v>
+        <v>23.25336220412719</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4774013157837682</v>
+        <v>0.4650672440825437</v>
       </c>
       <c r="R37" t="n">
-        <v>0.9548026315675364</v>
+        <v>0.9301344881650874</v>
       </c>
       <c r="S37" t="n">
-        <v>238.7006578918841</v>
+        <v>232.5336220412718</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9548026315675364</v>
+        <v>0.9301344881650874</v>
       </c>
       <c r="U37" t="n">
-        <v>10.95480263156754</v>
+        <v>10.93013448816509</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3511,35 +3511,35 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>144.0500030517578</v>
+        <v>156.4700012207031</v>
       </c>
       <c r="C38" t="n">
-        <v>11961782.53968254</v>
+        <v>5413552.380952381</v>
       </c>
       <c r="D38" t="n">
-        <v>1053.403660024292</v>
+        <v>706.2011321523779</v>
       </c>
       <c r="E38" t="n">
-        <v>47.45963339590374</v>
+        <v>44.97957711271926</v>
       </c>
       <c r="F38" t="n">
-        <v>181941.747712</v>
+        <v>54822.731776</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
-        <v>23.59757496188718</v>
+        <v>22.36445726028276</v>
       </c>
       <c r="I38" t="n">
-        <v>21.22459329209199</v>
+        <v>20.11547840464679</v>
       </c>
       <c r="J38" t="n">
-        <v>2.372981669795188</v>
+        <v>2.248978855635963</v>
       </c>
       <c r="K38" t="n">
         <v>0.02</v>
@@ -3551,28 +3551,28 @@
         <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>861.5474056728666</v>
+        <v>423.5292738279796</v>
       </c>
       <c r="O38" t="n">
-        <v>0.00290175558946464</v>
+        <v>0.00590277970021831</v>
       </c>
       <c r="P38" t="n">
-        <v>24.09757496188718</v>
+        <v>23.36445726028275</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.4819514992377436</v>
+        <v>0.467289145205655</v>
       </c>
       <c r="R38" t="n">
-        <v>0.9639029984754872</v>
+        <v>0.93457829041131</v>
       </c>
       <c r="S38" t="n">
-        <v>240.9757496188718</v>
+        <v>233.6445726028275</v>
       </c>
       <c r="T38" t="n">
-        <v>0.9639029984754872</v>
+        <v>0.93457829041131</v>
       </c>
       <c r="U38" t="n">
-        <v>10.96390299847549</v>
+        <v>10.93457829041131</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3597,31 +3597,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>200.0200042724609</v>
+        <v>194.8500061035156</v>
       </c>
       <c r="C39" t="n">
-        <v>668192.4603174604</v>
+        <v>676714.6825396825</v>
       </c>
       <c r="D39" t="n">
-        <v>145.4309490482312</v>
+        <v>146.2063556517656</v>
       </c>
       <c r="E39" t="n">
-        <v>45.56439726988707</v>
+        <v>45.82612959348171</v>
       </c>
       <c r="F39" t="n">
-        <v>12374.89664</v>
+        <v>11266.484224</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>22.65523779334902</v>
+        <v>22.78537466302207</v>
       </c>
       <c r="I39" t="n">
-        <v>20.37701792985466</v>
+        <v>20.49406818334798</v>
       </c>
       <c r="J39" t="n">
-        <v>2.278219863494353</v>
+        <v>2.291306479674086</v>
       </c>
       <c r="K39" t="n">
         <v>0.02</v>
@@ -3633,28 +3633,28 @@
         <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>66.8259293837623</v>
+        <v>65.9289300115979</v>
       </c>
       <c r="O39" t="n">
-        <v>0.03741062822550827</v>
+        <v>0.0379196204088283</v>
       </c>
       <c r="P39" t="n">
-        <v>24.15523779334902</v>
+        <v>24.28537466302206</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.4831047558669803</v>
+        <v>0.4857074932604413</v>
       </c>
       <c r="R39" t="n">
-        <v>0.9662095117339606</v>
+        <v>0.9714149865208827</v>
       </c>
       <c r="S39" t="n">
-        <v>241.5523779334901</v>
+        <v>242.8537466302207</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9662095117339606</v>
+        <v>0.9714149865208827</v>
       </c>
       <c r="U39" t="n">
-        <v>10.96620951173396</v>
+        <v>10.97141498652088</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3675,68 +3675,68 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>FICO</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>45.11000061035156</v>
+        <v>1667</v>
       </c>
       <c r="C40" t="n">
-        <v>1523301.984126984</v>
+        <v>261455.5555555556</v>
       </c>
       <c r="D40" t="n">
-        <v>70.83322697251292</v>
+        <v>475.9472924606296</v>
       </c>
       <c r="E40" t="n">
-        <v>18.0363289960135</v>
+        <v>47.07417650581662</v>
       </c>
       <c r="F40" t="n">
-        <v>12818.57536</v>
+        <v>40393.8304</v>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>21.96886174941971</v>
+        <v>23.40592055565672</v>
       </c>
       <c r="I40" t="n">
-        <v>20.16522884981836</v>
+        <v>21.05221173036589</v>
       </c>
       <c r="J40" t="n">
-        <v>1.80363289960135</v>
+        <v>2.353708825290831</v>
       </c>
       <c r="K40" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L40" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>34.358076716859</v>
+        <v>217.9232055555556</v>
       </c>
       <c r="O40" t="n">
-        <v>0.07276309499516562</v>
+        <v>0.01147193110355873</v>
       </c>
       <c r="P40" t="n">
-        <v>24.46886174941971</v>
+        <v>24.90592055565672</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4893772349883942</v>
+        <v>0.4981184111131345</v>
       </c>
       <c r="R40" t="n">
-        <v>0.9787544699767885</v>
+        <v>0.996236822226269</v>
       </c>
       <c r="S40" t="n">
-        <v>244.6886174941971</v>
+        <v>249.0592055565673</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9787544699767885</v>
+        <v>0.996236822226269</v>
       </c>
       <c r="U40" t="n">
-        <v>10.97875446997679</v>
+        <v>10.99623682222627</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3761,31 +3761,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>182.6399993896484</v>
+        <v>186.2599945068359</v>
       </c>
       <c r="C41" t="n">
-        <v>225199137.3015873</v>
+        <v>223436198.8095238</v>
       </c>
       <c r="D41" t="n">
-        <v>32548.81088080567</v>
+        <v>32442.77958266311</v>
       </c>
       <c r="E41" t="n">
-        <v>49.28971784374001</v>
+        <v>49.1846853177977</v>
       </c>
       <c r="F41" t="n">
-        <v>4420678.975488</v>
+        <v>4648938.242048</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>24.5075178302644</v>
+        <v>24.45529423039619</v>
       </c>
       <c r="I41" t="n">
-        <v>22.0430319380774</v>
+        <v>21.9960599645063</v>
       </c>
       <c r="J41" t="n">
-        <v>2.464485892187001</v>
+        <v>2.459234265889885</v>
       </c>
       <c r="K41" t="n">
         <v>0.02</v>
@@ -3797,28 +3797,28 @@
         <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>20565.18514965563</v>
+        <v>20808.61258144511</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0001215646726157417</v>
+        <v>0.000120142560692837</v>
       </c>
       <c r="P41" t="n">
-        <v>25.0075178302644</v>
+        <v>24.95529423039619</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.5001503566052881</v>
+        <v>0.4991058846079238</v>
       </c>
       <c r="R41" t="n">
-        <v>1.000300713210576</v>
+        <v>0.9982117692158475</v>
       </c>
       <c r="S41" t="n">
-        <v>250.075178302644</v>
+        <v>249.5529423039619</v>
       </c>
       <c r="T41" t="n">
-        <v>1.000300713210576</v>
+        <v>0.9982117692158475</v>
       </c>
       <c r="U41" t="n">
-        <v>11.00030071321058</v>
+        <v>10.99821176921585</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3843,31 +3843,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>66.47000122070312</v>
+        <v>66.15000152587891</v>
       </c>
       <c r="C42" t="n">
-        <v>1929219.047619048</v>
+        <v>1933761.507936508</v>
       </c>
       <c r="D42" t="n">
-        <v>113.5235169767073</v>
+        <v>114.2318965685741</v>
       </c>
       <c r="E42" t="n">
-        <v>47.76063935936064</v>
+        <v>47.74357705104783</v>
       </c>
       <c r="F42" t="n">
-        <v>7837.871616</v>
+        <v>7734.961152</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>23.74723921924451</v>
+        <v>23.73875560758077</v>
       </c>
       <c r="I42" t="n">
-        <v>21.35920725127648</v>
+        <v>21.35157675502838</v>
       </c>
       <c r="J42" t="n">
-        <v>2.388031967968033</v>
+        <v>2.387178852552392</v>
       </c>
       <c r="K42" t="n">
         <v>0.02</v>
@@ -3879,28 +3879,28 @@
         <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>64.11759622512091</v>
+        <v>63.95916335034295</v>
       </c>
       <c r="O42" t="n">
-        <v>0.03899085660077372</v>
+        <v>0.03908744062685734</v>
       </c>
       <c r="P42" t="n">
-        <v>25.24723921924451</v>
+        <v>25.23875560758077</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.5049447843848902</v>
+        <v>0.5047751121516154</v>
       </c>
       <c r="R42" t="n">
-        <v>1.00988956876978</v>
+        <v>1.009550224303231</v>
       </c>
       <c r="S42" t="n">
-        <v>252.4723921924451</v>
+        <v>252.3875560758077</v>
       </c>
       <c r="T42" t="n">
-        <v>1.00988956876978</v>
+        <v>1.009550224303231</v>
       </c>
       <c r="U42" t="n">
-        <v>11.00988956876978</v>
+        <v>11.00955022430323</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -3921,35 +3921,35 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>WSM</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>172.4299926757812</v>
+        <v>189.0899963378906</v>
       </c>
       <c r="C43" t="n">
-        <v>3066357.936507937</v>
+        <v>1846746.031746032</v>
       </c>
       <c r="D43" t="n">
-        <v>875.0093293487654</v>
+        <v>325.3306102134251</v>
       </c>
       <c r="E43" t="n">
-        <v>51.12387998596692</v>
+        <v>49.94680022618886</v>
       </c>
       <c r="F43" t="n">
-        <v>21058.490368</v>
+        <v>23471.433728</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>25.41948818373096</v>
+        <v>24.83422812418148</v>
       </c>
       <c r="I43" t="n">
-        <v>22.86329418443261</v>
+        <v>22.33688811287204</v>
       </c>
       <c r="J43" t="n">
-        <v>2.556193999298346</v>
+        <v>2.497340011309443</v>
       </c>
       <c r="K43" t="n">
         <v>0.02</v>
@@ -3961,28 +3961,28 @@
         <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>264.3660382666936</v>
+        <v>174.6006001899356</v>
       </c>
       <c r="O43" t="n">
-        <v>0.009456585332938982</v>
+        <v>0.01431839293381825</v>
       </c>
       <c r="P43" t="n">
-        <v>26.41948818373096</v>
+        <v>26.33422812418148</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.5283897636746191</v>
+        <v>0.5266845624836296</v>
       </c>
       <c r="R43" t="n">
-        <v>1.056779527349238</v>
+        <v>1.053369124967259</v>
       </c>
       <c r="S43" t="n">
-        <v>264.1948818373095</v>
+        <v>263.3422812418148</v>
       </c>
       <c r="T43" t="n">
-        <v>1.056779527349238</v>
+        <v>1.053369124967259</v>
       </c>
       <c r="U43" t="n">
-        <v>11.05677952734924</v>
+        <v>11.05336912496726</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4003,35 +4003,35 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>WSM</t>
+          <t>LULU</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>189.8300018310547</v>
+        <v>178.1699981689453</v>
       </c>
       <c r="C44" t="n">
-        <v>1859145.634920635</v>
+        <v>3092928.174603174</v>
       </c>
       <c r="D44" t="n">
-        <v>326.0470108890256</v>
+        <v>877.0062881875292</v>
       </c>
       <c r="E44" t="n">
-        <v>50.37083628998023</v>
+        <v>51.18102272874706</v>
       </c>
       <c r="F44" t="n">
-        <v>23279.005696</v>
+        <v>21534.01344</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>25.04506462008083</v>
+        <v>25.4479003323254</v>
       </c>
       <c r="I44" t="n">
-        <v>22.52652280558182</v>
+        <v>22.88884919588804</v>
       </c>
       <c r="J44" t="n">
-        <v>2.518541814499011</v>
+        <v>2.559051136437353</v>
       </c>
       <c r="K44" t="n">
         <v>0.02</v>
@@ -4043,28 +4043,28 @@
         <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>176.4608096405908</v>
+        <v>275.5335036028635</v>
       </c>
       <c r="O44" t="n">
-        <v>0.01416745171402031</v>
+        <v>0.009073306756928337</v>
       </c>
       <c r="P44" t="n">
-        <v>26.54506462008083</v>
+        <v>26.44790033232539</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.5309012924016165</v>
+        <v>0.5289580066465078</v>
       </c>
       <c r="R44" t="n">
-        <v>1.061802584803233</v>
+        <v>1.057916013293016</v>
       </c>
       <c r="S44" t="n">
-        <v>265.4506462008083</v>
+        <v>264.4790033232539</v>
       </c>
       <c r="T44" t="n">
-        <v>1.061802584803233</v>
+        <v>1.057916013293016</v>
       </c>
       <c r="U44" t="n">
-        <v>11.06180258480323</v>
+        <v>11.05791601329302</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4085,35 +4085,35 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DECK</t>
+          <t>MOH</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.1900024414062</v>
+        <v>163.3200073242188</v>
       </c>
       <c r="C45" t="n">
-        <v>3010169.841269841</v>
+        <v>1020634.523809524</v>
       </c>
       <c r="D45" t="n">
-        <v>413.0791571139106</v>
+        <v>273.3368614146501</v>
       </c>
       <c r="E45" t="n">
-        <v>52.87956258190005</v>
+        <v>54.59667575327042</v>
       </c>
       <c r="F45" t="n">
-        <v>15408.42496</v>
+        <v>8258.438144</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
       </c>
       <c r="H45" t="n">
-        <v>26.29243743981157</v>
+        <v>27.14620945362896</v>
       </c>
       <c r="I45" t="n">
-        <v>23.64845931071656</v>
+        <v>24.41637566596544</v>
       </c>
       <c r="J45" t="n">
-        <v>2.643978129095003</v>
+        <v>2.729833787663521</v>
       </c>
       <c r="K45" t="n">
         <v>0.02</v>
@@ -4125,28 +4125,28 @@
         <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>150.7944618729364</v>
+        <v>83.34501895196097</v>
       </c>
       <c r="O45" t="n">
-        <v>0.01657885819511441</v>
+        <v>0.02999579376712325</v>
       </c>
       <c r="P45" t="n">
-        <v>27.79243743981157</v>
+        <v>28.64620945362896</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.5558487487962314</v>
+        <v>0.5729241890725791</v>
       </c>
       <c r="R45" t="n">
-        <v>1.111697497592463</v>
+        <v>1.145848378145158</v>
       </c>
       <c r="S45" t="n">
-        <v>277.9243743981157</v>
+        <v>286.4620945362896</v>
       </c>
       <c r="T45" t="n">
-        <v>1.111697497592463</v>
+        <v>1.145848378145158</v>
       </c>
       <c r="U45" t="n">
-        <v>11.11169749759246</v>
+        <v>11.14584837814516</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4167,68 +4167,68 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>DECK</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.52999877929688</v>
+        <v>86.94000244140625</v>
       </c>
       <c r="C46" t="n">
-        <v>341646.4285714286</v>
+        <v>3121841.666666667</v>
       </c>
       <c r="D46" t="n">
-        <v>11.81111427599751</v>
+        <v>425.3946578170953</v>
       </c>
       <c r="E46" t="n">
-        <v>18.90380828662569</v>
+        <v>54.99201147686116</v>
       </c>
       <c r="F46" t="n">
-        <v>1611.474432</v>
+        <v>13383.537664</v>
       </c>
       <c r="G46" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
-        <v>23.02548100992201</v>
+        <v>27.34277575018509</v>
       </c>
       <c r="I46" t="n">
-        <v>21.13510018125944</v>
+        <v>24.59317517634203</v>
       </c>
       <c r="J46" t="n">
-        <v>1.89038082866257</v>
+        <v>2.749600573843058</v>
       </c>
       <c r="K46" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L46" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>6.069348595046998</v>
+        <v>135.7064610608419</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4119058183674225</v>
+        <v>0.0184221147648907</v>
       </c>
       <c r="P46" t="n">
-        <v>28.02548100992201</v>
+        <v>28.84277575018508</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.5605096201984402</v>
+        <v>0.5768555150037017</v>
       </c>
       <c r="R46" t="n">
-        <v>1.12101924039688</v>
+        <v>1.153711030007403</v>
       </c>
       <c r="S46" t="n">
-        <v>280.2548100992201</v>
+        <v>288.4277575018509</v>
       </c>
       <c r="T46" t="n">
-        <v>1.12101924039688</v>
+        <v>1.153711030007403</v>
       </c>
       <c r="U46" t="n">
-        <v>11.12101924039688</v>
+        <v>11.1537110300074</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4253,31 +4253,31 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>453.3500061035156</v>
+        <v>464.1799926757812</v>
       </c>
       <c r="C47" t="n">
-        <v>1662956.349206349</v>
+        <v>1675700</v>
       </c>
       <c r="D47" t="n">
-        <v>844.4641484493559</v>
+        <v>849.6979308622088</v>
       </c>
       <c r="E47" t="n">
-        <v>57.17572871210869</v>
+        <v>57.21651002600331</v>
       </c>
       <c r="F47" t="n">
-        <v>84614.09484799999</v>
+        <v>86254.247936</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
       </c>
       <c r="H47" t="n">
-        <v>28.42854964827774</v>
+        <v>28.4488266719885</v>
       </c>
       <c r="I47" t="n">
-        <v>25.56976321267231</v>
+        <v>25.58800117068833</v>
       </c>
       <c r="J47" t="n">
-        <v>2.858786435605434</v>
+        <v>2.860825501300166</v>
       </c>
       <c r="K47" t="n">
         <v>0.02</v>
@@ -4289,28 +4289,28 @@
         <v>1</v>
       </c>
       <c r="N47" t="n">
-        <v>376.9506355312892</v>
+        <v>388.9132068634033</v>
       </c>
       <c r="O47" t="n">
-        <v>0.006632168152406483</v>
+        <v>0.006428169462699853</v>
       </c>
       <c r="P47" t="n">
-        <v>29.42854964827774</v>
+        <v>29.4488266719885</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.5885709929655549</v>
+        <v>0.58897653343977</v>
       </c>
       <c r="R47" t="n">
-        <v>1.17714198593111</v>
+        <v>1.17795306687954</v>
       </c>
       <c r="S47" t="n">
-        <v>294.2854964827774</v>
+        <v>294.488266719885</v>
       </c>
       <c r="T47" t="n">
-        <v>1.17714198593111</v>
+        <v>1.17795306687954</v>
       </c>
       <c r="U47" t="n">
-        <v>11.17714198593111</v>
+        <v>11.17795306687954</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4331,68 +4331,68 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>AWR</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>274.8999938964844</v>
+        <v>76.19999694824219</v>
       </c>
       <c r="C48" t="n">
-        <v>761425.3968253968</v>
+        <v>229702.7777777778</v>
       </c>
       <c r="D48" t="n">
-        <v>198.2546345410415</v>
+        <v>17.54280774316207</v>
       </c>
       <c r="E48" t="n">
-        <v>57.52404422165733</v>
+        <v>21.03611700875966</v>
       </c>
       <c r="F48" t="n">
-        <v>20075.446272</v>
+        <v>2948.637184</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H48" t="n">
-        <v>28.60173685514882</v>
+        <v>25.62270550798904</v>
       </c>
       <c r="I48" t="n">
-        <v>25.72553464406596</v>
+        <v>23.51909380711308</v>
       </c>
       <c r="J48" t="n">
-        <v>2.876202211082867</v>
+        <v>2.103611700875966</v>
       </c>
       <c r="K48" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L48" t="n">
         <v>0.02</v>
       </c>
-      <c r="L48" t="n">
-        <v>0.01</v>
-      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="n">
-        <v>104.6579184699649</v>
+        <v>8.751675482834711</v>
       </c>
       <c r="O48" t="n">
-        <v>0.02388734685868474</v>
+        <v>0.2856595865447056</v>
       </c>
       <c r="P48" t="n">
-        <v>30.10173685514882</v>
+        <v>30.62270550798904</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.6020347371029764</v>
+        <v>0.6124541101597808</v>
       </c>
       <c r="R48" t="n">
-        <v>1.204069474205953</v>
+        <v>1.224908220319562</v>
       </c>
       <c r="S48" t="n">
-        <v>301.0173685514882</v>
+        <v>306.2270550798904</v>
       </c>
       <c r="T48" t="n">
-        <v>1.204069474205953</v>
+        <v>1.224908220319562</v>
       </c>
       <c r="U48" t="n">
-        <v>11.20406947420595</v>
+        <v>11.22490822031956</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4413,35 +4413,35 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MPWR</t>
+          <t>WST</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1031.589965820312</v>
+        <v>297.4700012207031</v>
       </c>
       <c r="C49" t="n">
-        <v>800975.7936507936</v>
+        <v>770384.126984127</v>
       </c>
       <c r="D49" t="n">
-        <v>563.3931814947829</v>
+        <v>200.6149034263972</v>
       </c>
       <c r="E49" t="n">
-        <v>62.73737901762249</v>
+        <v>58.59968483857333</v>
       </c>
       <c r="F49" t="n">
-        <v>48906.350592</v>
+        <v>20611.426304</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49" t="n">
-        <v>31.1938777935957</v>
+        <v>29.13655999375141</v>
       </c>
       <c r="I49" t="n">
-        <v>28.05700884271458</v>
+        <v>26.20657575182275</v>
       </c>
       <c r="J49" t="n">
-        <v>3.136868950881125</v>
+        <v>2.929984241928667</v>
       </c>
       <c r="K49" t="n">
         <v>0.02</v>
@@ -4453,28 +4453,28 @@
         <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>413.1392957975599</v>
+        <v>114.5830835971893</v>
       </c>
       <c r="O49" t="n">
-        <v>0.006051227819357593</v>
+        <v>0.02181822937134958</v>
       </c>
       <c r="P49" t="n">
-        <v>32.1938777935957</v>
+        <v>30.63655999375141</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.643877555871914</v>
+        <v>0.6127311998750282</v>
       </c>
       <c r="R49" t="n">
-        <v>1.287755111743828</v>
+        <v>1.225462399750056</v>
       </c>
       <c r="S49" t="n">
-        <v>321.938777935957</v>
+        <v>306.3655999375141</v>
       </c>
       <c r="T49" t="n">
-        <v>1.287755111743828</v>
+        <v>1.225462399750056</v>
       </c>
       <c r="U49" t="n">
-        <v>11.28775511174383</v>
+        <v>11.22546239975006</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4495,35 +4495,35 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>194.2400054931641</v>
+        <v>241.4100036621094</v>
       </c>
       <c r="C50" t="n">
-        <v>6348695.634920635</v>
+        <v>3380123.412698413</v>
       </c>
       <c r="D50" t="n">
-        <v>1030.46914031704</v>
+        <v>593.3895186507123</v>
       </c>
       <c r="E50" t="n">
-        <v>67.39523948851001</v>
+        <v>61.76677818090839</v>
       </c>
       <c r="F50" t="n">
-        <v>66040.37734399999</v>
+        <v>26544.86528</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
-        <v>33.50982934566282</v>
+        <v>30.71128186177781</v>
       </c>
       <c r="I50" t="n">
-        <v>30.14006737123731</v>
+        <v>27.62294295273239</v>
       </c>
       <c r="J50" t="n">
-        <v>3.369761974425501</v>
+        <v>3.08833890904542</v>
       </c>
       <c r="K50" t="n">
         <v>0.02</v>
@@ -4535,28 +4535,28 @@
         <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>616.5853375007055</v>
+        <v>407.9978027189528</v>
       </c>
       <c r="O50" t="n">
-        <v>0.004054588794040435</v>
+        <v>0.006127483979912784</v>
       </c>
       <c r="P50" t="n">
-        <v>34.00982934566282</v>
+        <v>31.71128186177781</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.6801965869132564</v>
+        <v>0.6342256372355561</v>
       </c>
       <c r="R50" t="n">
-        <v>1.360393173826513</v>
+        <v>1.268451274471112</v>
       </c>
       <c r="S50" t="n">
-        <v>340.0982934566282</v>
+        <v>317.1128186177781</v>
       </c>
       <c r="T50" t="n">
-        <v>1.360393173826513</v>
+        <v>1.268451274471112</v>
       </c>
       <c r="U50" t="n">
-        <v>11.36039317382651</v>
+        <v>11.26845127447111</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4577,35 +4577,35 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>CEG</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>544.4099731445312</v>
+        <v>389.1900024414062</v>
       </c>
       <c r="C51" t="n">
-        <v>408556.746031746</v>
+        <v>3334481.349206349</v>
       </c>
       <c r="D51" t="n">
-        <v>148.690417695204</v>
+        <v>943.4550531562559</v>
       </c>
       <c r="E51" t="n">
-        <v>67.18689743024314</v>
+        <v>62.72044647119129</v>
       </c>
       <c r="F51" t="n">
-        <v>15266.874368</v>
+        <v>121666.3552</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>33.40623884177808</v>
+        <v>31.18545870130367</v>
       </c>
       <c r="I51" t="n">
-        <v>30.04689397026592</v>
+        <v>28.0494363777441</v>
       </c>
       <c r="J51" t="n">
-        <v>3.359344871512158</v>
+        <v>3.136022323559565</v>
       </c>
       <c r="K51" t="n">
         <v>0.02</v>
@@ -4617,28 +4617,28 @@
         <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>111.21118356758</v>
+        <v>648.8734022192215</v>
       </c>
       <c r="O51" t="n">
-        <v>0.02247975356256161</v>
+        <v>0.003852831679414988</v>
       </c>
       <c r="P51" t="n">
-        <v>34.90623884177808</v>
+        <v>32.18545870130367</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.6981247768355616</v>
+        <v>0.6437091740260734</v>
       </c>
       <c r="R51" t="n">
-        <v>1.396249553671123</v>
+        <v>1.287418348052147</v>
       </c>
       <c r="S51" t="n">
-        <v>349.0623884177808</v>
+        <v>321.8545870130367</v>
       </c>
       <c r="T51" t="n">
-        <v>1.396249553671123</v>
+        <v>1.287418348052147</v>
       </c>
       <c r="U51" t="n">
-        <v>11.39624955367112</v>
+        <v>11.28741834805215</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4659,68 +4659,68 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>MPWR</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>33.29999923706055</v>
+        <v>1074.910034179688</v>
       </c>
       <c r="C52" t="n">
-        <v>1808259.523809524</v>
+        <v>801786.1111111111</v>
       </c>
       <c r="D52" t="n">
-        <v>55.72248842320096</v>
+        <v>565.9111250340316</v>
       </c>
       <c r="E52" t="n">
-        <v>26.70257823322682</v>
+        <v>63.03574272521666</v>
       </c>
       <c r="F52" t="n">
-        <v>17248.268288</v>
+        <v>53088.280576</v>
       </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
-        <v>32.52464787532338</v>
+        <v>31.34222828541529</v>
       </c>
       <c r="I52" t="n">
-        <v>29.8543900520007</v>
+        <v>28.19044114915446</v>
       </c>
       <c r="J52" t="n">
-        <v>2.670257823322682</v>
+        <v>3.151787136260833</v>
       </c>
       <c r="K52" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L52" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>30.10752038163231</v>
+        <v>430.9239680496216</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0830357322127788</v>
+        <v>0.005801487467302168</v>
       </c>
       <c r="P52" t="n">
-        <v>35.02464787532338</v>
+        <v>32.34222828541529</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.7004929575064677</v>
+        <v>0.6468445657083057</v>
       </c>
       <c r="R52" t="n">
-        <v>1.400985915012935</v>
+        <v>1.293689131416611</v>
       </c>
       <c r="S52" t="n">
-        <v>350.2464787532338</v>
+        <v>323.4222828541529</v>
       </c>
       <c r="T52" t="n">
-        <v>1.400985915012935</v>
+        <v>1.293689131416611</v>
       </c>
       <c r="U52" t="n">
-        <v>11.40098591501294</v>
+        <v>11.29368913141661</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4741,68 +4741,68 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>VST</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>120.0999984741211</v>
+        <v>201.4700012207031</v>
       </c>
       <c r="C53" t="n">
-        <v>570722.6190476191</v>
+        <v>6312619.444444444</v>
       </c>
       <c r="D53" t="n">
-        <v>68.05300420485884</v>
+        <v>1030.98264235158</v>
       </c>
       <c r="E53" t="n">
-        <v>27.10226942185328</v>
+        <v>67.25766701153691</v>
       </c>
       <c r="F53" t="n">
-        <v>12118.870016</v>
+        <v>67852.156928</v>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>33.01148532807426</v>
+        <v>33.44142643974518</v>
       </c>
       <c r="I53" t="n">
-        <v>30.30125838588893</v>
+        <v>30.07854308916833</v>
       </c>
       <c r="J53" t="n">
-        <v>2.710226942185328</v>
+        <v>3.362883350576846</v>
       </c>
       <c r="K53" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L53" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="n">
-        <v>34.27189283838272</v>
+        <v>635.9017235890284</v>
       </c>
       <c r="O53" t="n">
-        <v>0.07294607309229595</v>
+        <v>0.003931425104322731</v>
       </c>
       <c r="P53" t="n">
-        <v>35.51148532807426</v>
+        <v>33.94142643974518</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.7102297065614852</v>
+        <v>0.6788285287949036</v>
       </c>
       <c r="R53" t="n">
-        <v>1.42045941312297</v>
+        <v>1.357657057589807</v>
       </c>
       <c r="S53" t="n">
-        <v>355.1148532807426</v>
+        <v>339.4142643974518</v>
       </c>
       <c r="T53" t="n">
-        <v>1.42045941312297</v>
+        <v>1.357657057589807</v>
       </c>
       <c r="U53" t="n">
-        <v>11.42045941312297</v>
+        <v>11.35765705758981</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -4823,68 +4823,68 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HRB</t>
+          <t>MEDP</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>51.36999893188477</v>
+        <v>605.2000122070312</v>
       </c>
       <c r="C54" t="n">
-        <v>1462734.920634921</v>
+        <v>407169.8412698412</v>
       </c>
       <c r="D54" t="n">
-        <v>79.52597096974274</v>
+        <v>149.6647837448404</v>
       </c>
       <c r="E54" t="n">
-        <v>27.16189598623128</v>
+        <v>67.20522974523074</v>
       </c>
       <c r="F54" t="n">
-        <v>6838.460928</v>
+        <v>16812.485632</v>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
-        <v>33.08411251011905</v>
+        <v>33.4153539180269</v>
       </c>
       <c r="I54" t="n">
-        <v>30.36792291149592</v>
+        <v>30.05509243076536</v>
       </c>
       <c r="J54" t="n">
-        <v>2.716189598623128</v>
+        <v>3.360261487261537</v>
       </c>
       <c r="K54" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L54" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>37.57034565532322</v>
+        <v>123.2095964534215</v>
       </c>
       <c r="O54" t="n">
-        <v>0.06654184188070635</v>
+        <v>0.02029062728847674</v>
       </c>
       <c r="P54" t="n">
-        <v>35.58411251011905</v>
+        <v>34.9153539180269</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.711682250202381</v>
+        <v>0.6983070783605378</v>
       </c>
       <c r="R54" t="n">
-        <v>1.423364500404762</v>
+        <v>1.396614156721076</v>
       </c>
       <c r="S54" t="n">
-        <v>355.8411251011905</v>
+        <v>349.1535391802689</v>
       </c>
       <c r="T54" t="n">
-        <v>1.423364500404762</v>
+        <v>1.396614156721076</v>
       </c>
       <c r="U54" t="n">
-        <v>11.42336450040476</v>
+        <v>11.39661415672107</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -4905,68 +4905,68 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>WMG</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>447.4299926757812</v>
+        <v>32.81999969482422</v>
       </c>
       <c r="C55" t="n">
-        <v>100522426.5873016</v>
+        <v>1818592.857142857</v>
       </c>
       <c r="D55" t="n">
-        <v>33801.98226370061</v>
+        <v>56.0918925354285</v>
       </c>
       <c r="E55" t="n">
-        <v>70.76998844056823</v>
+        <v>26.70093378406667</v>
       </c>
       <c r="F55" t="n">
-        <v>1481853.50144</v>
+        <v>16732.665856</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H55" t="n">
-        <v>35.18780040602539</v>
+        <v>32.52264488035355</v>
       </c>
       <c r="I55" t="n">
-        <v>31.64930098399698</v>
+        <v>29.85255150194688</v>
       </c>
       <c r="J55" t="n">
-        <v>3.538499422028411</v>
+        <v>2.670093378406667</v>
       </c>
       <c r="K55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L55" t="n">
         <v>0.02</v>
       </c>
-      <c r="L55" t="n">
-        <v>0.01</v>
-      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>22488.37429585405</v>
+        <v>29.84310850821904</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0001111685516752049</v>
+        <v>0.08377143417588283</v>
       </c>
       <c r="P55" t="n">
-        <v>35.68780040602539</v>
+        <v>35.02264488035355</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.7137560081205078</v>
+        <v>0.7004528976070709</v>
       </c>
       <c r="R55" t="n">
-        <v>1.427512016241016</v>
+        <v>1.400905795214142</v>
       </c>
       <c r="S55" t="n">
-        <v>356.8780040602539</v>
+        <v>350.2264488035354</v>
       </c>
       <c r="T55" t="n">
-        <v>1.427512016241016</v>
+        <v>1.400905795214142</v>
       </c>
       <c r="U55" t="n">
-        <v>11.42751201624102</v>
+        <v>11.40090579521414</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -4987,35 +4987,35 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>181.5899963378906</v>
+        <v>433.7200012207031</v>
       </c>
       <c r="C56" t="n">
-        <v>83685380.15873016</v>
+        <v>101192169.8412698</v>
       </c>
       <c r="D56" t="n">
-        <v>9522.526205959715</v>
+        <v>34382.91481088183</v>
       </c>
       <c r="E56" t="n">
-        <v>71.35906404105974</v>
+        <v>70.90317722064515</v>
       </c>
       <c r="F56" t="n">
-        <v>421829.8368</v>
+        <v>1496069.832704</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>35.48069680336707</v>
+        <v>35.25402367824769</v>
       </c>
       <c r="I56" t="n">
-        <v>31.91274360131409</v>
+        <v>31.70886481721543</v>
       </c>
       <c r="J56" t="n">
-        <v>3.567953202052987</v>
+        <v>3.545158861032258</v>
       </c>
       <c r="K56" t="n">
         <v>0.02</v>
@@ -5027,28 +5027,28 @@
         <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>7598.213938279398</v>
+        <v>21944.53401354058</v>
       </c>
       <c r="O56" t="n">
-        <v>0.000329024691895701</v>
+        <v>0.000113923585639021</v>
       </c>
       <c r="P56" t="n">
-        <v>35.98069680336708</v>
+        <v>35.75402367824769</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.7196139360673416</v>
+        <v>0.7150804735649539</v>
       </c>
       <c r="R56" t="n">
-        <v>1.439227872134683</v>
+        <v>1.430160947129908</v>
       </c>
       <c r="S56" t="n">
-        <v>359.8069680336708</v>
+        <v>357.5402367824769</v>
       </c>
       <c r="T56" t="n">
-        <v>1.439227872134683</v>
+        <v>1.430160947129908</v>
       </c>
       <c r="U56" t="n">
-        <v>11.43922787213468</v>
+        <v>11.43016094712991</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5069,68 +5069,68 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>444.9500122070312</v>
+        <v>184.6300048828125</v>
       </c>
       <c r="C57" t="n">
-        <v>138996.0317460317</v>
+        <v>83803873.80952381</v>
       </c>
       <c r="D57" t="n">
-        <v>73.47952394582114</v>
+        <v>9719.41366419302</v>
       </c>
       <c r="E57" t="n">
-        <v>30.73076810487977</v>
+        <v>71.49369367581718</v>
       </c>
       <c r="F57" t="n">
-        <v>6444.62336</v>
+        <v>450270.625792</v>
       </c>
       <c r="G57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>37.43112005213475</v>
+        <v>35.54763648812567</v>
       </c>
       <c r="I57" t="n">
-        <v>34.35804324164678</v>
+        <v>31.97295180433481</v>
       </c>
       <c r="J57" t="n">
-        <v>3.073076810487977</v>
+        <v>3.574684683790859</v>
       </c>
       <c r="K57" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L57" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>30.92314301106287</v>
+        <v>7736.354815325491</v>
       </c>
       <c r="O57" t="n">
-        <v>0.08084559836319406</v>
+        <v>0.0003231496046494111</v>
       </c>
       <c r="P57" t="n">
-        <v>39.93112005213476</v>
+        <v>36.04763648812568</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.7986224010426951</v>
+        <v>0.7209527297625135</v>
       </c>
       <c r="R57" t="n">
-        <v>1.59724480208539</v>
+        <v>1.441905459525027</v>
       </c>
       <c r="S57" t="n">
-        <v>399.3112005213475</v>
+        <v>360.4763648812567</v>
       </c>
       <c r="T57" t="n">
-        <v>1.59724480208539</v>
+        <v>1.441905459525027</v>
       </c>
       <c r="U57" t="n">
-        <v>11.59724480208539</v>
+        <v>11.44190545952503</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5151,68 +5151,68 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>WTS</t>
+          <t>ENPH</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>281.6499938964844</v>
+        <v>36.22999954223633</v>
       </c>
       <c r="C58" t="n">
-        <v>183387.3015873016</v>
+        <v>6490573.015873016</v>
       </c>
       <c r="D58" t="n">
-        <v>42.34327670999874</v>
+        <v>339.3042353953409</v>
       </c>
       <c r="E58" t="n">
-        <v>28.74278558587518</v>
+        <v>73.210316396179</v>
       </c>
       <c r="F58" t="n">
-        <v>9215.604735999999</v>
+        <v>4829.933056</v>
       </c>
       <c r="G58" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
-        <v>35.00968977494652</v>
+        <v>36.40116464303368</v>
       </c>
       <c r="I58" t="n">
-        <v>32.135411216359</v>
+        <v>32.74064882322473</v>
       </c>
       <c r="J58" t="n">
-        <v>2.874278558587517</v>
+        <v>3.66051581980895</v>
       </c>
       <c r="K58" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L58" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>25.82551618637812</v>
+        <v>117.5767286969654</v>
       </c>
       <c r="O58" t="n">
-        <v>0.0968034862094507</v>
+        <v>0.02126271097781039</v>
       </c>
       <c r="P58" t="n">
-        <v>40.00968977494652</v>
+        <v>37.90116464303368</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.8001937954989303</v>
+        <v>0.7580232928606736</v>
       </c>
       <c r="R58" t="n">
-        <v>1.600387590997861</v>
+        <v>1.516046585721347</v>
       </c>
       <c r="S58" t="n">
-        <v>400.0968977494652</v>
+        <v>379.0116464303368</v>
       </c>
       <c r="T58" t="n">
-        <v>1.600387590997861</v>
+        <v>1.516046585721347</v>
       </c>
       <c r="U58" t="n">
-        <v>11.60038759099786</v>
+        <v>11.51604658572135</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5233,68 +5233,68 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>GHC</t>
+          <t>TTD</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1022</v>
+        <v>52</v>
       </c>
       <c r="C59" t="n">
-        <v>29905.07142857143</v>
+        <v>10504039.68253968</v>
       </c>
       <c r="D59" t="n">
-        <v>28.53468330473732</v>
+        <v>852.8446573685399</v>
       </c>
       <c r="E59" t="n">
-        <v>31.04408245062248</v>
+        <v>74.77456555055208</v>
       </c>
       <c r="F59" t="n">
-        <v>4352.429056</v>
+        <v>26160.889856</v>
       </c>
       <c r="G59" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
-        <v>37.81274757441231</v>
+        <v>37.1789305893373</v>
       </c>
       <c r="I59" t="n">
-        <v>34.70833932935006</v>
+        <v>33.44020231180969</v>
       </c>
       <c r="J59" t="n">
-        <v>3.104408245062248</v>
+        <v>3.738728277527605</v>
       </c>
       <c r="K59" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L59" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="n">
-        <v>15.2814915</v>
+        <v>273.1050317460318</v>
       </c>
       <c r="O59" t="n">
-        <v>0.163596596575668</v>
+        <v>0.009153987328672956</v>
       </c>
       <c r="P59" t="n">
-        <v>42.8127475744123</v>
+        <v>38.1789305893373</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.856254951488246</v>
+        <v>0.7635786117867459</v>
       </c>
       <c r="R59" t="n">
-        <v>1.712509902976492</v>
+        <v>1.527157223573492</v>
       </c>
       <c r="S59" t="n">
-        <v>428.127475744123</v>
+        <v>381.789305893373</v>
       </c>
       <c r="T59" t="n">
-        <v>1.712509902976492</v>
+        <v>1.527157223573492</v>
       </c>
       <c r="U59" t="n">
-        <v>11.71250990297649</v>
+        <v>11.52715722357349</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5315,35 +5315,35 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LOPE</t>
+          <t>WTS</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>212.6399993896484</v>
+        <v>278.5499877929688</v>
       </c>
       <c r="C60" t="n">
-        <v>213521.4285714286</v>
+        <v>183763.8888888889</v>
       </c>
       <c r="D60" t="n">
-        <v>38.4217745589665</v>
+        <v>42.65548512864743</v>
       </c>
       <c r="E60" t="n">
-        <v>31.15388014775653</v>
+        <v>28.67989329713834</v>
       </c>
       <c r="F60" t="n">
-        <v>6055.880192</v>
+        <v>9216.671743999999</v>
       </c>
       <c r="G60" t="n">
         <v>10</v>
       </c>
       <c r="H60" t="n">
-        <v>37.94648490140805</v>
+        <v>34.93308482963479</v>
       </c>
       <c r="I60" t="n">
-        <v>34.83109688663239</v>
+        <v>32.06509549992095</v>
       </c>
       <c r="J60" t="n">
-        <v>3.115388014775653</v>
+        <v>2.867989329713834</v>
       </c>
       <c r="K60" t="n">
         <v>0.05</v>
@@ -5355,28 +5355,28 @@
         <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>22.70159822055272</v>
+        <v>25.59371450339423</v>
       </c>
       <c r="O60" t="n">
-        <v>0.110124405150323</v>
+        <v>0.09768023315523235</v>
       </c>
       <c r="P60" t="n">
-        <v>42.94648490140804</v>
+        <v>39.93308482963479</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.8589296980281609</v>
+        <v>0.7986616965926958</v>
       </c>
       <c r="R60" t="n">
-        <v>1.717859396056322</v>
+        <v>1.597323393185392</v>
       </c>
       <c r="S60" t="n">
-        <v>429.4648490140805</v>
+        <v>399.3308482963479</v>
       </c>
       <c r="T60" t="n">
-        <v>1.717859396056322</v>
+        <v>1.597323393185392</v>
       </c>
       <c r="U60" t="n">
-        <v>11.71785939605632</v>
+        <v>11.59732339318539</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5397,68 +5397,68 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>NXST</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>565.9400024414062</v>
+        <v>190.7299957275391</v>
       </c>
       <c r="C61" t="n">
-        <v>7105350</v>
+        <v>396370.6349206349</v>
       </c>
       <c r="D61" t="n">
-        <v>2634.435254354095</v>
+        <v>68.04448224062401</v>
       </c>
       <c r="E61" t="n">
-        <v>94.07674301494403</v>
+        <v>34.96506514588088</v>
       </c>
       <c r="F61" t="n">
-        <v>197947.195392</v>
+        <v>5783.035904</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H61" t="n">
-        <v>46.77623564738588</v>
+        <v>42.58863776653722</v>
       </c>
       <c r="I61" t="n">
-        <v>42.07239849663868</v>
+        <v>39.09213125194913</v>
       </c>
       <c r="J61" t="n">
-        <v>4.703837150747202</v>
+        <v>3.496506514588088</v>
       </c>
       <c r="K61" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L61" t="n">
         <v>0.02</v>
       </c>
-      <c r="L61" t="n">
-        <v>0.01</v>
-      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="n">
-        <v>2010.600898173523</v>
+        <v>37.79988475246732</v>
       </c>
       <c r="O61" t="n">
-        <v>0.001243409371930082</v>
+        <v>0.0661377677834538</v>
       </c>
       <c r="P61" t="n">
-        <v>47.27623564738587</v>
+        <v>45.08863776653722</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.9455247129477176</v>
+        <v>0.9017727553307444</v>
       </c>
       <c r="R61" t="n">
-        <v>1.891049425895435</v>
+        <v>1.803545510661489</v>
       </c>
       <c r="S61" t="n">
-        <v>472.7623564738588</v>
+        <v>450.8863776653722</v>
       </c>
       <c r="T61" t="n">
-        <v>1.891049425895435</v>
+        <v>1.803545510661489</v>
       </c>
       <c r="U61" t="n">
-        <v>11.89104942589544</v>
+        <v>11.80354551066149</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5483,31 +5483,31 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>571.1699829101562</v>
+        <v>590.9199829101562</v>
       </c>
       <c r="C62" t="n">
-        <v>108286.9047619048</v>
+        <v>109711.1111111111</v>
       </c>
       <c r="D62" t="n">
-        <v>52.51632972977769</v>
+        <v>53.46866760675071</v>
       </c>
       <c r="E62" t="n">
-        <v>37.93735345582546</v>
+        <v>37.62134326850848</v>
       </c>
       <c r="F62" t="n">
-        <v>4578.93376</v>
+        <v>4676.043776</v>
       </c>
       <c r="G62" t="n">
         <v>5</v>
       </c>
       <c r="H62" t="n">
-        <v>46.2089859524137</v>
+        <v>45.8240748034704</v>
       </c>
       <c r="I62" t="n">
-        <v>42.41525060683115</v>
+        <v>42.06194047661955</v>
       </c>
       <c r="J62" t="n">
-        <v>3.793735345582546</v>
+        <v>3.762134326850848</v>
       </c>
       <c r="K62" t="n">
         <v>0.05</v>
@@ -5519,28 +5519,28 @@
         <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>30.92511477112543</v>
+        <v>32.41524395141602</v>
       </c>
       <c r="O62" t="n">
-        <v>0.08084044371386563</v>
+        <v>0.07712420747926503</v>
       </c>
       <c r="P62" t="n">
-        <v>48.70898595241371</v>
+        <v>48.3240748034704</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.9741797190482741</v>
+        <v>0.9664814960694079</v>
       </c>
       <c r="R62" t="n">
-        <v>1.948359438096548</v>
+        <v>1.932962992138816</v>
       </c>
       <c r="S62" t="n">
-        <v>487.089859524137</v>
+        <v>483.2407480347039</v>
       </c>
       <c r="T62" t="n">
-        <v>1.948359438096548</v>
+        <v>1.932962992138816</v>
       </c>
       <c r="U62" t="n">
-        <v>11.94835943809655</v>
+        <v>11.93296299213882</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5561,35 +5561,35 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IDCC</t>
+          <t>APPF</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>371</v>
+        <v>242.6799926757812</v>
       </c>
       <c r="C63" t="n">
-        <v>346096.4285714286</v>
+        <v>286828.9682539682</v>
       </c>
       <c r="D63" t="n">
-        <v>77.80383162613802</v>
+        <v>68.69466714935591</v>
       </c>
       <c r="E63" t="n">
-        <v>38.49317331663343</v>
+        <v>44.01803937791114</v>
       </c>
       <c r="F63" t="n">
-        <v>9562.999808</v>
+        <v>8808.551423999999</v>
       </c>
       <c r="G63" t="n">
         <v>5</v>
       </c>
       <c r="H63" t="n">
-        <v>46.88599343450004</v>
+        <v>53.61546808042704</v>
       </c>
       <c r="I63" t="n">
-        <v>43.03667610283669</v>
+        <v>49.21366414263593</v>
       </c>
       <c r="J63" t="n">
-        <v>3.849317331663344</v>
+        <v>4.401803937791114</v>
       </c>
       <c r="K63" t="n">
         <v>0.05</v>
@@ -5601,32 +5601,32 @@
         <v>1</v>
       </c>
       <c r="N63" t="n">
-        <v>64.20088750000002</v>
+        <v>34.80382595753745</v>
       </c>
       <c r="O63" t="n">
-        <v>0.03894027165901717</v>
+        <v>0.07183118324548959</v>
       </c>
       <c r="P63" t="n">
-        <v>49.38599343450004</v>
+        <v>56.11546808042704</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.9877198686900007</v>
+        <v>1.122309361608541</v>
       </c>
       <c r="R63" t="n">
-        <v>1.975439737380001</v>
+        <v>2.244618723217081</v>
       </c>
       <c r="S63" t="n">
-        <v>493.8599343450003</v>
+        <v>561.1546808042704</v>
       </c>
       <c r="T63" t="n">
-        <v>1.975439737380001</v>
+        <v>2.244618723217081</v>
       </c>
       <c r="U63" t="n">
-        <v>11.97543973738</v>
+        <v>12.24461872321708</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -5643,68 +5643,68 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CCS</t>
+          <t>SEDG</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>59.88000106811523</v>
+        <v>39.70000076293945</v>
       </c>
       <c r="C64" t="n">
-        <v>399751.1904761905</v>
+        <v>4853130.158730159</v>
       </c>
       <c r="D64" t="n">
-        <v>27.04762755849707</v>
+        <v>100.7241168104161</v>
       </c>
       <c r="E64" t="n">
-        <v>40.18528150028532</v>
+        <v>112.1014554865159</v>
       </c>
       <c r="F64" t="n">
-        <v>1828.742272</v>
+        <v>2343.226112</v>
       </c>
       <c r="G64" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
-        <v>48.94703871482989</v>
+        <v>55.73836774322908</v>
       </c>
       <c r="I64" t="n">
-        <v>44.92851056480136</v>
+        <v>50.13329496890328</v>
       </c>
       <c r="J64" t="n">
-        <v>4.018528150028532</v>
+        <v>5.605072774325797</v>
       </c>
       <c r="K64" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L64" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>11.96855085634731</v>
+        <v>96.33463550211587</v>
       </c>
       <c r="O64" t="n">
-        <v>0.2088807600858519</v>
+        <v>0.02595120630258772</v>
       </c>
       <c r="P64" t="n">
-        <v>53.94703871482989</v>
+        <v>57.23836774322908</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.078940774296598</v>
+        <v>1.144767354864582</v>
       </c>
       <c r="R64" t="n">
-        <v>2.157881548593195</v>
+        <v>2.289534709729163</v>
       </c>
       <c r="S64" t="n">
-        <v>539.4703871482989</v>
+        <v>572.3836774322907</v>
       </c>
       <c r="T64" t="n">
-        <v>2.157881548593195</v>
+        <v>2.289534709729163</v>
       </c>
       <c r="U64" t="n">
-        <v>12.1578815485932</v>
+        <v>12.28953470972916</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5725,35 +5725,35 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>APPF</t>
+          <t>POWL</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>240.3800048828125</v>
+        <v>364.989990234375</v>
       </c>
       <c r="C65" t="n">
-        <v>287813.8888888889</v>
+        <v>370744.8412698412</v>
       </c>
       <c r="D65" t="n">
-        <v>68.74921277661635</v>
+        <v>86.55237146016611</v>
       </c>
       <c r="E65" t="n">
-        <v>44.01497719906753</v>
+        <v>66.6308734669593</v>
       </c>
       <c r="F65" t="n">
-        <v>8434.964991999999</v>
+        <v>4519.06816</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
       </c>
       <c r="H65" t="n">
-        <v>53.6117382425159</v>
+        <v>81.15866858284997</v>
       </c>
       <c r="I65" t="n">
-        <v>49.21024052260915</v>
+        <v>74.49558123615404</v>
       </c>
       <c r="J65" t="n">
-        <v>4.401497719906753</v>
+        <v>6.66308734669593</v>
       </c>
       <c r="K65" t="n">
         <v>0.05</v>
@@ -5765,28 +5765,28 @@
         <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>34.59235200822618</v>
+        <v>67.65907799726214</v>
       </c>
       <c r="O65" t="n">
-        <v>0.07227030990565463</v>
+        <v>0.03694995666510802</v>
       </c>
       <c r="P65" t="n">
-        <v>56.11173824251591</v>
+        <v>83.65866858284996</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.122234764850318</v>
+        <v>1.673173371656999</v>
       </c>
       <c r="R65" t="n">
-        <v>2.244469529700636</v>
+        <v>3.346346743313998</v>
       </c>
       <c r="S65" t="n">
-        <v>561.117382425159</v>
+        <v>836.5866858284996</v>
       </c>
       <c r="T65" t="n">
-        <v>2.244469529700636</v>
+        <v>3.346346743313998</v>
       </c>
       <c r="U65" t="n">
-        <v>12.24446952970064</v>
+        <v>13.346346743314</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -5795,420 +5795,10 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>IIPR</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>54.63999938964844</v>
-      </c>
-      <c r="C66" t="n">
-        <v>322552.3809523809</v>
-      </c>
-      <c r="D66" t="n">
-        <v>20.48796605623379</v>
-      </c>
-      <c r="E66" t="n">
-        <v>47.23286651157652</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1533.40224</v>
-      </c>
-      <c r="G66" t="n">
-        <v>10</v>
-      </c>
-      <c r="H66" t="n">
-        <v>57.53123679718689</v>
-      </c>
-      <c r="I66" t="n">
-        <v>52.80795014602923</v>
-      </c>
-      <c r="J66" t="n">
-        <v>4.723286651157654</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="n">
-        <v>8.812130949183873</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0.2836998240739415</v>
-      </c>
-      <c r="P66" t="n">
-        <v>62.53123679718689</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>1.250624735943738</v>
-      </c>
-      <c r="R66" t="n">
-        <v>2.501249471887475</v>
-      </c>
-      <c r="S66" t="n">
-        <v>625.3123679718689</v>
-      </c>
-      <c r="T66" t="n">
-        <v>2.501249471887475</v>
-      </c>
-      <c r="U66" t="n">
-        <v>12.50124947188748</v>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="X66" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>SONO</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>16.94000053405762</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1930909.920634921</v>
-      </c>
-      <c r="D67" t="n">
-        <v>24.26908572901489</v>
-      </c>
-      <c r="E67" t="n">
-        <v>49.32031663930063</v>
-      </c>
-      <c r="F67" t="n">
-        <v>2060.331776</v>
-      </c>
-      <c r="G67" t="n">
-        <v>10</v>
-      </c>
-      <c r="H67" t="n">
-        <v>60.07382200257516</v>
-      </c>
-      <c r="I67" t="n">
-        <v>55.14179033864509</v>
-      </c>
-      <c r="J67" t="n">
-        <v>4.932031663930062</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="n">
-        <v>16.35480754338635</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0.1528602518475348</v>
-      </c>
-      <c r="P67" t="n">
-        <v>65.07382200257517</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>1.301476440051503</v>
-      </c>
-      <c r="R67" t="n">
-        <v>2.602952880103007</v>
-      </c>
-      <c r="S67" t="n">
-        <v>650.7382200257516</v>
-      </c>
-      <c r="T67" t="n">
-        <v>2.602952880103007</v>
-      </c>
-      <c r="U67" t="n">
-        <v>12.60295288010301</v>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>SITC</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>8.720000267028809</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1085790.373015873</v>
-      </c>
-      <c r="D68" t="n">
-        <v>9.691558049843884</v>
-      </c>
-      <c r="E68" t="n">
-        <v>28.19026326296568</v>
-      </c>
-      <c r="F68" t="n">
-        <v>466.465856</v>
-      </c>
-      <c r="G68" t="n">
-        <v>15</v>
-      </c>
-      <c r="H68" t="n">
-        <v>70.0829107753477</v>
-      </c>
-      <c r="I68" t="n">
-        <v>63.03534495960628</v>
-      </c>
-      <c r="J68" t="n">
-        <v>7.04756581574142</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="n">
-        <v>4.734046171317861</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0.5280894840330743</v>
-      </c>
-      <c r="P68" t="n">
-        <v>77.58291077534771</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>1.551658215506954</v>
-      </c>
-      <c r="R68" t="n">
-        <v>3.103316431013909</v>
-      </c>
-      <c r="S68" t="n">
-        <v>775.829107753477</v>
-      </c>
-      <c r="T68" t="n">
-        <v>3.103316431013909</v>
-      </c>
-      <c r="U68" t="n">
-        <v>13.10331643101391</v>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>POWL</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>349.2000122070312</v>
-      </c>
-      <c r="C69" t="n">
-        <v>371862.3015873016</v>
-      </c>
-      <c r="D69" t="n">
-        <v>86.37209660517983</v>
-      </c>
-      <c r="E69" t="n">
-        <v>66.38073830132829</v>
-      </c>
-      <c r="F69" t="n">
-        <v>4170.286592</v>
-      </c>
-      <c r="G69" t="n">
-        <v>5</v>
-      </c>
-      <c r="H69" t="n">
-        <v>80.85399544932982</v>
-      </c>
-      <c r="I69" t="n">
-        <v>74.21592161919699</v>
-      </c>
-      <c r="J69" t="n">
-        <v>6.638073830132829</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="n">
-        <v>64.92716012681024</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0.03850468733142204</v>
-      </c>
-      <c r="P69" t="n">
-        <v>83.35399544932982</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>1.667079908986596</v>
-      </c>
-      <c r="R69" t="n">
-        <v>3.334159817973192</v>
-      </c>
-      <c r="S69" t="n">
-        <v>833.5399544932981</v>
-      </c>
-      <c r="T69" t="n">
-        <v>3.334159817973192</v>
-      </c>
-      <c r="U69" t="n">
-        <v>13.33415981797319</v>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>SAFE</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>15.53999996185303</v>
-      </c>
-      <c r="C70" t="n">
-        <v>415374.6031746032</v>
-      </c>
-      <c r="D70" t="n">
-        <v>6.923673613234472</v>
-      </c>
-      <c r="E70" t="n">
-        <v>37.0604991495862</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1124.846464</v>
-      </c>
-      <c r="G70" t="n">
-        <v>15</v>
-      </c>
-      <c r="H70" t="n">
-        <v>92.13492016594444</v>
-      </c>
-      <c r="I70" t="n">
-        <v>82.86979537854788</v>
-      </c>
-      <c r="J70" t="n">
-        <v>9.265124787396552</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="n">
-        <v>3.227460658744025</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0.7746027804326145</v>
-      </c>
-      <c r="P70" t="n">
-        <v>99.63492016594442</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>1.992698403318888</v>
-      </c>
-      <c r="R70" t="n">
-        <v>3.985396806637777</v>
-      </c>
-      <c r="S70" t="n">
-        <v>996.3492016594442</v>
-      </c>
-      <c r="T70" t="n">
-        <v>3.985396806637777</v>
-      </c>
-      <c r="U70" t="n">
-        <v>13.98539680663778</v>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X70" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6225,7 +5815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6312,31 +5902,31 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.4214355433631193</v>
+        <v>0.4216615493344021</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2107177716815596</v>
+        <v>0.210830774667201</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4214355433631193</v>
+        <v>0.4216615493344021</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>9.535888584077982</v>
+        <v>9.541538733360055</v>
       </c>
       <c r="J2" t="n">
-        <v>522.9912345987186</v>
+        <v>521.1545648403796</v>
       </c>
       <c r="K2" t="n">
-        <v>248.394314992172</v>
+        <v>245.7342624489557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6355,31 +5945,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4382539320592477</v>
+        <v>0.465316870306989</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2191269660296238</v>
+        <v>0.2326584351534945</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4382539320592477</v>
+        <v>0.465316870306989</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>9.456348301481192</v>
+        <v>11.13292175767473</v>
       </c>
       <c r="J3" t="n">
-        <v>207.1744962172567</v>
+        <v>1333.59380243723</v>
       </c>
       <c r="K3" t="n">
-        <v>104.7676322044796</v>
+        <v>674.0409223439051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>ITW</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6398,31 +5988,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.4455779111239387</v>
+        <v>0.5085441867994396</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2227889555619694</v>
+        <v>0.2542720933997198</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4455779111239387</v>
+        <v>0.5085441867994396</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>9.639447778098468</v>
+        <v>11.21360466998599</v>
       </c>
       <c r="J4" t="n">
-        <v>298.9117556509974</v>
+        <v>260.1265780750754</v>
       </c>
       <c r="K4" t="n">
-        <v>138.4442615591231</v>
+        <v>126.6821746031746</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -6441,31 +6031,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.462912827681573</v>
+        <v>0.5091374421975903</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2314564138407865</v>
+        <v>0.2545687210987951</v>
       </c>
       <c r="G5" t="n">
-        <v>0.462912827681573</v>
+        <v>0.5091374421975903</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>11.07282069203933</v>
+        <v>12.22843605493975</v>
       </c>
       <c r="J5" t="n">
-        <v>1499.002695884247</v>
+        <v>9769.794723273581</v>
       </c>
       <c r="K5" t="n">
-        <v>773.2367918818157</v>
+        <v>5673.607890773979</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>GWW</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6484,31 +6074,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.463371964090513</v>
+        <v>0.5308623538887066</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2316859820452565</v>
+        <v>0.2654311769443533</v>
       </c>
       <c r="G6" t="n">
-        <v>0.463371964090513</v>
+        <v>0.5308623538887066</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>11.08429910226282</v>
+        <v>11.77155884721767</v>
       </c>
       <c r="J6" t="n">
-        <v>2134.920972830507</v>
+        <v>288.7647489042159</v>
       </c>
       <c r="K6" t="n">
-        <v>1095.489157686028</v>
+        <v>134.4802492270091</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>LMT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -6527,31 +6117,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.4672497455019979</v>
+        <v>0.5599641728685149</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2336248727509989</v>
+        <v>0.2799820864342574</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4672497455019979</v>
+        <v>0.5599641728685149</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>11.18124363754995</v>
+        <v>12.99910432171287</v>
       </c>
       <c r="J7" t="n">
-        <v>1337.735285196569</v>
+        <v>721.7332794115954</v>
       </c>
       <c r="K7" t="n">
-        <v>679.6508100470409</v>
+        <v>373.2451391155001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>BKNG</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -6570,31 +6160,31 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.4791659274249115</v>
+        <v>0.5743950736455321</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2395829637124557</v>
+        <v>0.2871975368227661</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4791659274249115</v>
+        <v>0.5743950736455321</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>10.47914818562279</v>
+        <v>13.8598768411383</v>
       </c>
       <c r="J8" t="n">
-        <v>451.3618276853986</v>
+        <v>1235.823756866517</v>
       </c>
       <c r="K8" t="n">
-        <v>202.264375</v>
+        <v>621.0077715378535</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CLX</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -6613,31 +6203,31 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.4877112926954216</v>
+        <v>0.5925383699682606</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2438556463477108</v>
+        <v>0.2962691849841303</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4877112926954216</v>
+        <v>0.5925383699682606</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>10.69278231738554</v>
+        <v>14.31345924920652</v>
       </c>
       <c r="J9" t="n">
-        <v>219.065700461377</v>
+        <v>1238.158695860029</v>
       </c>
       <c r="K9" t="n">
-        <v>94.22884953513977</v>
+        <v>738.7408607019122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>TYL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -6656,31 +6246,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.4930347039303799</v>
+        <v>0.5991999746972817</v>
       </c>
       <c r="F10" t="n">
-        <v>0.24651735196519</v>
+        <v>0.2995999873486409</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4930347039303799</v>
+        <v>0.5991999746972817</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>10.8258675982595</v>
+        <v>13.47999936743204</v>
       </c>
       <c r="J10" t="n">
-        <v>398.6893953105417</v>
+        <v>169.9043007648063</v>
       </c>
       <c r="K10" t="n">
-        <v>240.7648253558931</v>
+        <v>75.08467571517701</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ITW</t>
+          <t>HCA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -6699,31 +6289,31 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.4956942347936494</v>
+        <v>0.6011609194151319</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2478471173968247</v>
+        <v>0.300580459707566</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4956942347936494</v>
+        <v>0.6011609194151319</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>10.89235586984124</v>
+        <v>14.0290229853783</v>
       </c>
       <c r="J11" t="n">
-        <v>255.248300653512</v>
+        <v>536.263999858703</v>
       </c>
       <c r="K11" t="n">
-        <v>127.6622692119538</v>
+        <v>336.3689568422045</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>NVR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -6742,31 +6332,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.5019874848450182</v>
+        <v>0.6038037395290806</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2509937424225091</v>
+        <v>0.3019018697645403</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5019874848450182</v>
+        <v>0.6038037395290806</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>11.04968712112546</v>
+        <v>13.59509348822701</v>
       </c>
       <c r="J12" t="n">
-        <v>255.7641699199316</v>
+        <v>173.8068908349646</v>
       </c>
       <c r="K12" t="n">
-        <v>106.2222276832944</v>
+        <v>82.30333569025917</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>DPZ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -6785,31 +6375,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.5209191118894817</v>
+        <v>0.6055835340181245</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2604595559447409</v>
+        <v>0.3027917670090622</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5209191118894817</v>
+        <v>0.6055835340181245</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>11.52297779723704</v>
+        <v>13.63958835045311</v>
       </c>
       <c r="J13" t="n">
-        <v>393.4958163046207</v>
+        <v>282.4202939209239</v>
       </c>
       <c r="K13" t="n">
-        <v>198.2761455080305</v>
+        <v>130.4801327856881</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>NEE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -6828,31 +6418,31 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.5231132294418795</v>
+        <v>0.611622878091553</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2615566147209398</v>
+        <v>0.3058114390457765</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5231132294418795</v>
+        <v>0.611622878091553</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>11.57783073604699</v>
+        <v>14.29057195228882</v>
       </c>
       <c r="J14" t="n">
-        <v>235.5887979037026</v>
+        <v>811.8328092653369</v>
       </c>
       <c r="K14" t="n">
-        <v>124.607586272382</v>
+        <v>477.2321035677047</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GWW</t>
+          <t>LYV</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -6871,31 +6461,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.5326407156379986</v>
+        <v>0.6549208351357874</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2663203578189993</v>
+        <v>0.3274604175678937</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5326407156379986</v>
+        <v>0.6549208351357874</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>11.81601789094997</v>
+        <v>14.87302087839468</v>
       </c>
       <c r="J15" t="n">
-        <v>288.4685540801361</v>
+        <v>352.1487242960264</v>
       </c>
       <c r="K15" t="n">
-        <v>134.4047999913897</v>
+        <v>189.0757799970203</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -6914,31 +6504,31 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.5547268134854291</v>
+        <v>0.6691937902083268</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2773634067427145</v>
+        <v>0.3345968951041634</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5547268134854291</v>
+        <v>0.6691937902083268</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>12.36817033713573</v>
+        <v>16.22984475520817</v>
       </c>
       <c r="J16" t="n">
-        <v>196.946923321257</v>
+        <v>12177.55724833975</v>
       </c>
       <c r="K16" t="n">
-        <v>107.4675052792988</v>
+        <v>7103.905277446494</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -6957,31 +6547,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.5686238513174783</v>
+        <v>0.6722394193126172</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2843119256587391</v>
+        <v>0.3361197096563086</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5686238513174783</v>
+        <v>0.6722394193126172</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>13.71559628293696</v>
+        <v>16.30598548281543</v>
       </c>
       <c r="J17" t="n">
-        <v>1222.717823088239</v>
+        <v>4030.768140291765</v>
       </c>
       <c r="K17" t="n">
-        <v>615.5411741856167</v>
+        <v>2076.609660017226</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>OMC</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7000,31 +6590,31 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.5789330874621244</v>
+        <v>0.6841746816264129</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2894665437310622</v>
+        <v>0.3420873408132065</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5789330874621244</v>
+        <v>0.6841746816264129</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>12.97332718655311</v>
+        <v>15.60436704066032</v>
       </c>
       <c r="J18" t="n">
-        <v>264.849642735719</v>
+        <v>269.4055060869507</v>
       </c>
       <c r="K18" t="n">
-        <v>141.9019937205844</v>
+        <v>133.0850928571429</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>ADBE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7043,31 +6633,31 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.5933152259195593</v>
+        <v>0.6842135428096947</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2966576129597797</v>
+        <v>0.3421067714048474</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5933152259195593</v>
+        <v>0.6842135428096947</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>14.33288064798898</v>
+        <v>16.60533857024237</v>
       </c>
       <c r="J19" t="n">
-        <v>1235.217035757713</v>
+        <v>1584.601008727718</v>
       </c>
       <c r="K19" t="n">
-        <v>753.0985546206156</v>
+        <v>688.7926650229863</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HCA</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7086,31 +6676,31 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.601298747689852</v>
+        <v>0.6970517125244455</v>
       </c>
       <c r="F20" t="n">
-        <v>0.300649373844926</v>
+        <v>0.3485258562622228</v>
       </c>
       <c r="G20" t="n">
-        <v>0.601298747689852</v>
+        <v>0.6970517125244455</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>14.0324686922463</v>
+        <v>15.92629281311114</v>
       </c>
       <c r="J20" t="n">
-        <v>530.8985269758749</v>
+        <v>467.5197667476378</v>
       </c>
       <c r="K20" t="n">
-        <v>323.1341925697326</v>
+        <v>266.5636349206349</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7129,31 +6719,31 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.604252557294691</v>
+        <v>0.699311386776622</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3021262786473455</v>
+        <v>0.349655693388311</v>
       </c>
       <c r="G21" t="n">
-        <v>0.604252557294691</v>
+        <v>0.699311386776622</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>13.60631393236727</v>
+        <v>16.48278466941555</v>
       </c>
       <c r="J21" t="n">
-        <v>281.1644926175133</v>
+        <v>507.3402909035515</v>
       </c>
       <c r="K21" t="n">
-        <v>132.418990264384</v>
+        <v>329.7169099800171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NVR</t>
+          <t>PANW</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7172,31 +6762,31 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.6043683281571589</v>
+        <v>0.725532918699443</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3021841640785795</v>
+        <v>0.3627664593497215</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6043683281571589</v>
+        <v>0.725532918699443</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>13.60920820392897</v>
+        <v>17.63832296748608</v>
       </c>
       <c r="J22" t="n">
-        <v>174.2425158653807</v>
+        <v>1139.963409337114</v>
       </c>
       <c r="K22" t="n">
-        <v>84.93537179245722</v>
+        <v>651.4817634445766</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>CSL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -7215,31 +6805,31 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.6683666855196368</v>
+        <v>0.7634964294653014</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3341833427598184</v>
+        <v>0.3817482147326507</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6683666855196368</v>
+        <v>0.7634964294653014</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>16.20916713799092</v>
+        <v>17.58741073663253</v>
       </c>
       <c r="J23" t="n">
-        <v>12146.90348987271</v>
+        <v>169.4467233006864</v>
       </c>
       <c r="K23" t="n">
-        <v>7083.922520739602</v>
+        <v>76.28882158648778</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>LII</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -7258,31 +6848,31 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.6912247197569122</v>
+        <v>0.7675096747777536</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3456123598784561</v>
+        <v>0.3837548373888768</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6912247197569122</v>
+        <v>0.7675096747777536</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>15.78061799392281</v>
+        <v>17.68774186944384</v>
       </c>
       <c r="J24" t="n">
-        <v>466.7608640541757</v>
+        <v>244.4008760861693</v>
       </c>
       <c r="K24" t="n">
-        <v>255.8735840969026</v>
+        <v>103.5751319934663</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>WSO</t>
+          <t>NTAP</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -7301,31 +6891,31 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.7025286477393468</v>
+        <v>0.7970068713998835</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3512643238696734</v>
+        <v>0.3985034356999417</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7025286477393468</v>
+        <v>0.7970068713998835</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>16.06321619348367</v>
+        <v>18.42517178499708</v>
       </c>
       <c r="J25" t="n">
-        <v>144.8964850655861</v>
+        <v>218.8748234113982</v>
       </c>
       <c r="K25" t="n">
-        <v>59.81060183649215</v>
+        <v>117.7199145268546</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LII</t>
+          <t>NOW</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -7344,31 +6934,31 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.7364078287227735</v>
+        <v>0.8073077479497287</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3682039143613868</v>
+        <v>0.4036538739748644</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7364078287227735</v>
+        <v>0.8073077479497287</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>16.91019571806934</v>
+        <v>19.68269369874321</v>
       </c>
       <c r="J26" t="n">
-        <v>237.608538186105</v>
+        <v>1509.658433936394</v>
       </c>
       <c r="K26" t="n">
-        <v>108.2545141369048</v>
+        <v>729.0090969810486</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -7387,25 +6977,25 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.7631327861890318</v>
+        <v>0.809223493974696</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3815663930945159</v>
+        <v>0.404611746987348</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7631327861890318</v>
+        <v>0.809223493974696</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>17.5783196547258</v>
+        <v>19.2305873493674</v>
       </c>
       <c r="J27" t="n">
-        <v>169.0478744580238</v>
+        <v>748.6815722422173</v>
       </c>
       <c r="K27" t="n">
-        <v>73.53957526253595</v>
+        <v>257.7655077967266</v>
       </c>
     </row>
     <row r="28">
@@ -7430,25 +7020,25 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.7962874679477209</v>
+        <v>0.81201401491939</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3981437339738604</v>
+        <v>0.406007007459695</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7962874679477209</v>
+        <v>0.81201401491939</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>18.40718669869302</v>
+        <v>18.80035037298475</v>
       </c>
       <c r="J28" t="n">
-        <v>462.3240913726711</v>
+        <v>466.2183027690028</v>
       </c>
       <c r="K28" t="n">
-        <v>298.6526490289961</v>
+        <v>274.2963810313271</v>
       </c>
     </row>
     <row r="29">
@@ -7473,25 +7063,25 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.8184438027985814</v>
+        <v>0.8189797627456699</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4092219013992907</v>
+        <v>0.4094898813728349</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8184438027985814</v>
+        <v>0.8189797627456699</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>18.96109506996454</v>
+        <v>18.97449406864175</v>
       </c>
       <c r="J29" t="n">
-        <v>378.7885297157386</v>
+        <v>376.1177846797013</v>
       </c>
       <c r="K29" t="n">
-        <v>228.6111450130886</v>
+        <v>223.1226438493154</v>
       </c>
     </row>
     <row r="30">
@@ -7516,25 +7106,25 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.8293254870216543</v>
+        <v>0.8289251466218984</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4146627435108272</v>
+        <v>0.4144625733109492</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8293254870216543</v>
+        <v>0.8289251466218984</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>19.73313717554135</v>
+        <v>19.72312866554746</v>
       </c>
       <c r="J30" t="n">
-        <v>672.9971792323777</v>
+        <v>664.0731288730245</v>
       </c>
       <c r="K30" t="n">
-        <v>303.3123671758743</v>
+        <v>302.8804375281683</v>
       </c>
     </row>
     <row r="31">
@@ -7559,31 +7149,31 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.8363222892840267</v>
+        <v>0.8371968599448163</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4181611446420134</v>
+        <v>0.4185984299724081</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8363222892840267</v>
+        <v>0.8371968599448163</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>20.40805723210067</v>
+        <v>20.42992149862041</v>
       </c>
       <c r="J31" t="n">
-        <v>3195.809738255611</v>
+        <v>3197.480801163043</v>
       </c>
       <c r="K31" t="n">
-        <v>1639.405476401907</v>
+        <v>1676.77133110618</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>ODFL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -7602,25 +7192,25 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.8799583218082287</v>
+        <v>0.8677323092419089</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4399791609041144</v>
+        <v>0.4338661546209545</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8799583218082287</v>
+        <v>0.8677323092419089</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>20.49895804520572</v>
+        <v>20.19330773104772</v>
       </c>
       <c r="J32" t="n">
-        <v>210.8534142408773</v>
+        <v>306.7773180798727</v>
       </c>
       <c r="K32" t="n">
-        <v>104.0552378863743</v>
+        <v>122.8102684200226</v>
       </c>
     </row>
     <row r="33">
@@ -7645,25 +7235,25 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.8802172179482814</v>
+        <v>0.885152848610529</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4401086089741407</v>
+        <v>0.4425764243052645</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8802172179482814</v>
+        <v>0.885152848610529</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>21.00543044870704</v>
+        <v>21.12882121526323</v>
       </c>
       <c r="J33" t="n">
-        <v>886.0570162441228</v>
+        <v>892.2750944109598</v>
       </c>
       <c r="K33" t="n">
-        <v>650.1224566928925</v>
+        <v>665.1735820449829</v>
       </c>
     </row>
     <row r="34">
@@ -7688,25 +7278,25 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.8903675804571847</v>
+        <v>0.8895567519354192</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4451837902285923</v>
+        <v>0.4447783759677096</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8903675804571847</v>
+        <v>0.8895567519354192</v>
       </c>
       <c r="H34" t="n">
         <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>21.25918951142962</v>
+        <v>21.23891879838548</v>
       </c>
       <c r="J34" t="n">
-        <v>513.267399727733</v>
+        <v>513.9165326351753</v>
       </c>
       <c r="K34" t="n">
-        <v>228.9501264721098</v>
+        <v>231.0004495990087</v>
       </c>
     </row>
     <row r="35">
@@ -7731,31 +7321,31 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.9070968529601128</v>
+        <v>0.906357520072873</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4535484264800564</v>
+        <v>0.4531787600364365</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9070968529601128</v>
+        <v>0.906357520072873</v>
       </c>
       <c r="H35" t="n">
         <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>21.17742132400282</v>
+        <v>21.15893800182182</v>
       </c>
       <c r="J35" t="n">
-        <v>329.9068396370485</v>
+        <v>329.4706394099944</v>
       </c>
       <c r="K35" t="n">
-        <v>212.7223159425524</v>
+        <v>210.3947344152784</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>DXCM</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7774,31 +7364,31 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.9351673539295469</v>
+        <v>0.9073923474802745</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4675836769647734</v>
+        <v>0.4536961737401373</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9351673539295469</v>
+        <v>0.9073923474802745</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>22.37918384823867</v>
+        <v>21.18480868700686</v>
       </c>
       <c r="J36" t="n">
-        <v>704.7154694246757</v>
+        <v>325.5821815305338</v>
       </c>
       <c r="K36" t="n">
-        <v>423.6961101285026</v>
+        <v>146.7170215717891</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>EPAM</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7817,31 +7407,31 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.9548026315675364</v>
+        <v>0.9301344881650874</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4774013157837682</v>
+        <v>0.4650672440825437</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9548026315675364</v>
+        <v>0.9301344881650874</v>
       </c>
       <c r="H37" t="n">
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>22.37006578918841</v>
+        <v>21.75336220412718</v>
       </c>
       <c r="J37" t="n">
-        <v>237.8598317393946</v>
+        <v>140.1381549165019</v>
       </c>
       <c r="K37" t="n">
-        <v>121.1488553287885</v>
+        <v>58.76929128143674</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7860,25 +7450,25 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.9639029984754872</v>
+        <v>0.93457829041131</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4819514992377436</v>
+        <v>0.467289145205655</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9639029984754872</v>
+        <v>0.93457829041131</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>23.59757496188718</v>
+        <v>22.36445726028276</v>
       </c>
       <c r="J38" t="n">
-        <v>1053.403660024292</v>
+        <v>706.2011321523779</v>
       </c>
       <c r="K38" t="n">
-        <v>861.5474056728666</v>
+        <v>423.5292738279796</v>
       </c>
     </row>
     <row r="39">
@@ -7903,31 +7493,31 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.9662095117339606</v>
+        <v>0.9714149865208827</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4831047558669803</v>
+        <v>0.4857074932604413</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9662095117339606</v>
+        <v>0.9714149865208827</v>
       </c>
       <c r="H39" t="n">
         <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>22.65523779334902</v>
+        <v>22.78537466302207</v>
       </c>
       <c r="J39" t="n">
-        <v>145.4309490482312</v>
+        <v>146.2063556517656</v>
       </c>
       <c r="K39" t="n">
-        <v>66.8259293837623</v>
+        <v>65.9289300115979</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>FICO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7946,25 +7536,25 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.9787544699767885</v>
+        <v>0.996236822226269</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4893772349883942</v>
+        <v>0.4981184111131345</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9787544699767885</v>
+        <v>0.996236822226269</v>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>21.96886174941971</v>
+        <v>23.40592055565672</v>
       </c>
       <c r="J40" t="n">
-        <v>70.83322697251292</v>
+        <v>475.9472924606296</v>
       </c>
       <c r="K40" t="n">
-        <v>34.358076716859</v>
+        <v>217.9232055555556</v>
       </c>
     </row>
     <row r="41">
@@ -7989,25 +7579,25 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1.000300713210576</v>
+        <v>0.9982117692158475</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5001503566052881</v>
+        <v>0.4991058846079238</v>
       </c>
       <c r="G41" t="n">
-        <v>1.000300713210576</v>
+        <v>0.9982117692158475</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>24.5075178302644</v>
+        <v>24.45529423039619</v>
       </c>
       <c r="J41" t="n">
-        <v>32548.81088080567</v>
+        <v>32442.77958266311</v>
       </c>
       <c r="K41" t="n">
-        <v>20565.18514965563</v>
+        <v>20808.61258144511</v>
       </c>
     </row>
     <row r="42">
@@ -8032,31 +7622,31 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1.00988956876978</v>
+        <v>1.009550224303231</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5049447843848902</v>
+        <v>0.5047751121516154</v>
       </c>
       <c r="G42" t="n">
-        <v>1.00988956876978</v>
+        <v>1.009550224303231</v>
       </c>
       <c r="H42" t="n">
         <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>23.74723921924451</v>
+        <v>23.73875560758077</v>
       </c>
       <c r="J42" t="n">
-        <v>113.5235169767073</v>
+        <v>114.2318965685741</v>
       </c>
       <c r="K42" t="n">
-        <v>64.11759622512091</v>
+        <v>63.95916335034295</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>WSM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8075,31 +7665,31 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1.056779527349238</v>
+        <v>1.053369124967259</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5283897636746191</v>
+        <v>0.5266845624836296</v>
       </c>
       <c r="G43" t="n">
-        <v>1.056779527349238</v>
+        <v>1.053369124967259</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>25.41948818373096</v>
+        <v>24.83422812418148</v>
       </c>
       <c r="J43" t="n">
-        <v>875.0093293487654</v>
+        <v>325.3306102134251</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3660382666936</v>
+        <v>174.6006001899356</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>WSM</t>
+          <t>LULU</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8118,31 +7708,31 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1.061802584803233</v>
+        <v>1.057916013293016</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5309012924016165</v>
+        <v>0.5289580066465078</v>
       </c>
       <c r="G44" t="n">
-        <v>1.061802584803233</v>
+        <v>1.057916013293016</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>25.04506462008083</v>
+        <v>25.4479003323254</v>
       </c>
       <c r="J44" t="n">
-        <v>326.0470108890256</v>
+        <v>877.0062881875292</v>
       </c>
       <c r="K44" t="n">
-        <v>176.4608096405908</v>
+        <v>275.5335036028635</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DECK</t>
+          <t>MOH</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8161,31 +7751,31 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1.111697497592463</v>
+        <v>1.145848378145158</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5558487487962314</v>
+        <v>0.5729241890725791</v>
       </c>
       <c r="G45" t="n">
-        <v>1.111697497592463</v>
+        <v>1.145848378145158</v>
       </c>
       <c r="H45" t="n">
         <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>26.29243743981157</v>
+        <v>27.14620945362896</v>
       </c>
       <c r="J45" t="n">
-        <v>413.0791571139106</v>
+        <v>273.3368614146501</v>
       </c>
       <c r="K45" t="n">
-        <v>150.7944618729364</v>
+        <v>83.34501895196097</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>DECK</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8204,25 +7794,25 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1.12101924039688</v>
+        <v>1.153711030007403</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5605096201984402</v>
+        <v>0.5768555150037017</v>
       </c>
       <c r="G46" t="n">
-        <v>1.12101924039688</v>
+        <v>1.153711030007403</v>
       </c>
       <c r="H46" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>23.02548100992201</v>
+        <v>27.34277575018509</v>
       </c>
       <c r="J46" t="n">
-        <v>11.81111427599751</v>
+        <v>425.3946578170953</v>
       </c>
       <c r="K46" t="n">
-        <v>6.069348595046998</v>
+        <v>135.7064610608419</v>
       </c>
     </row>
     <row r="47">
@@ -8247,31 +7837,31 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1.17714198593111</v>
+        <v>1.17795306687954</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5885709929655549</v>
+        <v>0.58897653343977</v>
       </c>
       <c r="G47" t="n">
-        <v>1.17714198593111</v>
+        <v>1.17795306687954</v>
       </c>
       <c r="H47" t="n">
         <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>28.42854964827774</v>
+        <v>28.4488266719885</v>
       </c>
       <c r="J47" t="n">
-        <v>844.4641484493559</v>
+        <v>849.6979308622088</v>
       </c>
       <c r="K47" t="n">
-        <v>376.9506355312892</v>
+        <v>388.9132068634033</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>AWR</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -8290,31 +7880,31 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1.204069474205953</v>
+        <v>1.224908220319562</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6020347371029764</v>
+        <v>0.6124541101597808</v>
       </c>
       <c r="G48" t="n">
-        <v>1.204069474205953</v>
+        <v>1.224908220319562</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I48" t="n">
-        <v>28.60173685514882</v>
+        <v>25.62270550798904</v>
       </c>
       <c r="J48" t="n">
-        <v>198.2546345410415</v>
+        <v>17.54280774316207</v>
       </c>
       <c r="K48" t="n">
-        <v>104.6579184699649</v>
+        <v>8.751675482834711</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MPWR</t>
+          <t>WST</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -8333,31 +7923,31 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1.287755111743828</v>
+        <v>1.225462399750056</v>
       </c>
       <c r="F49" t="n">
-        <v>0.643877555871914</v>
+        <v>0.6127311998750282</v>
       </c>
       <c r="G49" t="n">
-        <v>1.287755111743828</v>
+        <v>1.225462399750056</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>31.1938777935957</v>
+        <v>29.13655999375141</v>
       </c>
       <c r="J49" t="n">
-        <v>563.3931814947829</v>
+        <v>200.6149034263972</v>
       </c>
       <c r="K49" t="n">
-        <v>413.1392957975599</v>
+        <v>114.5830835971893</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>VST</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -8376,31 +7966,31 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.360393173826513</v>
+        <v>1.268451274471112</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6801965869132564</v>
+        <v>0.6342256372355561</v>
       </c>
       <c r="G50" t="n">
-        <v>1.360393173826513</v>
+        <v>1.268451274471112</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>33.50982934566282</v>
+        <v>30.71128186177781</v>
       </c>
       <c r="J50" t="n">
-        <v>1030.46914031704</v>
+        <v>593.3895186507123</v>
       </c>
       <c r="K50" t="n">
-        <v>616.5853375007055</v>
+        <v>407.9978027189528</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MEDP</t>
+          <t>CEG</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -8419,31 +8009,31 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.396249553671123</v>
+        <v>1.287418348052147</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6981247768355616</v>
+        <v>0.6437091740260734</v>
       </c>
       <c r="G51" t="n">
-        <v>1.396249553671123</v>
+        <v>1.287418348052147</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>33.40623884177808</v>
+        <v>31.18545870130367</v>
       </c>
       <c r="J51" t="n">
-        <v>148.690417695204</v>
+        <v>943.4550531562559</v>
       </c>
       <c r="K51" t="n">
-        <v>111.21118356758</v>
+        <v>648.8734022192215</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>WMG</t>
+          <t>MPWR</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -8462,31 +8052,31 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1.400985915012935</v>
+        <v>1.293689131416611</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7004929575064677</v>
+        <v>0.6468445657083057</v>
       </c>
       <c r="G52" t="n">
-        <v>1.400985915012935</v>
+        <v>1.293689131416611</v>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>32.52464787532338</v>
+        <v>31.34222828541529</v>
       </c>
       <c r="J52" t="n">
-        <v>55.72248842320096</v>
+        <v>565.9111250340316</v>
       </c>
       <c r="K52" t="n">
-        <v>30.10752038163231</v>
+        <v>430.9239680496216</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>VST</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -8505,31 +8095,31 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.42045941312297</v>
+        <v>1.357657057589807</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7102297065614852</v>
+        <v>0.6788285287949036</v>
       </c>
       <c r="G53" t="n">
-        <v>1.42045941312297</v>
+        <v>1.357657057589807</v>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>33.01148532807426</v>
+        <v>33.44142643974518</v>
       </c>
       <c r="J53" t="n">
-        <v>68.05300420485884</v>
+        <v>1030.98264235158</v>
       </c>
       <c r="K53" t="n">
-        <v>34.27189283838272</v>
+        <v>635.9017235890284</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HRB</t>
+          <t>MEDP</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -8548,31 +8138,31 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1.423364500404762</v>
+        <v>1.396614156721076</v>
       </c>
       <c r="F54" t="n">
-        <v>0.711682250202381</v>
+        <v>0.6983070783605378</v>
       </c>
       <c r="G54" t="n">
-        <v>1.423364500404762</v>
+        <v>1.396614156721076</v>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>33.08411251011905</v>
+        <v>33.4153539180269</v>
       </c>
       <c r="J54" t="n">
-        <v>79.52597096974274</v>
+        <v>149.6647837448404</v>
       </c>
       <c r="K54" t="n">
-        <v>37.57034565532322</v>
+        <v>123.2095964534215</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>WMG</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -8591,31 +8181,31 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1.427512016241016</v>
+        <v>1.400905795214142</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7137560081205078</v>
+        <v>0.7004528976070709</v>
       </c>
       <c r="G55" t="n">
-        <v>1.427512016241016</v>
+        <v>1.400905795214142</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I55" t="n">
-        <v>35.18780040602539</v>
+        <v>32.52264488035355</v>
       </c>
       <c r="J55" t="n">
-        <v>33801.98226370061</v>
+        <v>56.0918925354285</v>
       </c>
       <c r="K55" t="n">
-        <v>22488.37429585405</v>
+        <v>29.84310850821904</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -8634,31 +8224,31 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1.439227872134683</v>
+        <v>1.430160947129908</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7196139360673416</v>
+        <v>0.7150804735649539</v>
       </c>
       <c r="G56" t="n">
-        <v>1.439227872134683</v>
+        <v>1.430160947129908</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>35.48069680336707</v>
+        <v>35.25402367824769</v>
       </c>
       <c r="J56" t="n">
-        <v>9522.526205959715</v>
+        <v>34382.91481088183</v>
       </c>
       <c r="K56" t="n">
-        <v>7598.213938279398</v>
+        <v>21944.53401354058</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8677,31 +8267,31 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1.59724480208539</v>
+        <v>1.441905459525027</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7986224010426951</v>
+        <v>0.7209527297625135</v>
       </c>
       <c r="G57" t="n">
-        <v>1.59724480208539</v>
+        <v>1.441905459525027</v>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>37.43112005213475</v>
+        <v>35.54763648812567</v>
       </c>
       <c r="J57" t="n">
-        <v>73.47952394582114</v>
+        <v>9719.41366419302</v>
       </c>
       <c r="K57" t="n">
-        <v>30.92314301106287</v>
+        <v>7736.354815325491</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>WTS</t>
+          <t>ENPH</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8720,31 +8310,31 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1.600387590997861</v>
+        <v>1.516046585721347</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8001937954989303</v>
+        <v>0.7580232928606736</v>
       </c>
       <c r="G58" t="n">
-        <v>1.600387590997861</v>
+        <v>1.516046585721347</v>
       </c>
       <c r="H58" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>35.00968977494652</v>
+        <v>36.40116464303368</v>
       </c>
       <c r="J58" t="n">
-        <v>42.34327670999874</v>
+        <v>339.3042353953409</v>
       </c>
       <c r="K58" t="n">
-        <v>25.82551618637812</v>
+        <v>117.5767286969654</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>GHC</t>
+          <t>TTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8763,31 +8353,31 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1.712509902976492</v>
+        <v>1.527157223573492</v>
       </c>
       <c r="F59" t="n">
-        <v>0.856254951488246</v>
+        <v>0.7635786117867459</v>
       </c>
       <c r="G59" t="n">
-        <v>1.712509902976492</v>
+        <v>1.527157223573492</v>
       </c>
       <c r="H59" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>37.81274757441231</v>
+        <v>37.1789305893373</v>
       </c>
       <c r="J59" t="n">
-        <v>28.53468330473732</v>
+        <v>852.8446573685399</v>
       </c>
       <c r="K59" t="n">
-        <v>15.2814915</v>
+        <v>273.1050317460318</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LOPE</t>
+          <t>WTS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8806,31 +8396,31 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1.717859396056322</v>
+        <v>1.597323393185392</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8589296980281609</v>
+        <v>0.7986616965926958</v>
       </c>
       <c r="G60" t="n">
-        <v>1.717859396056322</v>
+        <v>1.597323393185392</v>
       </c>
       <c r="H60" t="n">
         <v>10</v>
       </c>
       <c r="I60" t="n">
-        <v>37.94648490140805</v>
+        <v>34.93308482963479</v>
       </c>
       <c r="J60" t="n">
-        <v>38.4217745589665</v>
+        <v>42.65548512864743</v>
       </c>
       <c r="K60" t="n">
-        <v>22.70159822055272</v>
+        <v>25.59371450339423</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>NXST</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8849,25 +8439,25 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1.891049425895435</v>
+        <v>1.803545510661489</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9455247129477176</v>
+        <v>0.9017727553307444</v>
       </c>
       <c r="G61" t="n">
-        <v>1.891049425895435</v>
+        <v>1.803545510661489</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I61" t="n">
-        <v>46.77623564738588</v>
+        <v>42.58863776653722</v>
       </c>
       <c r="J61" t="n">
-        <v>2634.435254354095</v>
+        <v>68.04448224062401</v>
       </c>
       <c r="K61" t="n">
-        <v>2010.600898173523</v>
+        <v>37.79988475246732</v>
       </c>
     </row>
     <row r="62">
@@ -8892,36 +8482,36 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1.948359438096548</v>
+        <v>1.932962992138816</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9741797190482741</v>
+        <v>0.9664814960694079</v>
       </c>
       <c r="G62" t="n">
-        <v>1.948359438096548</v>
+        <v>1.932962992138816</v>
       </c>
       <c r="H62" t="n">
         <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>46.2089859524137</v>
+        <v>45.8240748034704</v>
       </c>
       <c r="J62" t="n">
-        <v>52.51632972977769</v>
+        <v>53.46866760675071</v>
       </c>
       <c r="K62" t="n">
-        <v>30.92511477112543</v>
+        <v>32.41524395141602</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IDCC</t>
+          <t>APPF</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -8935,31 +8525,31 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1.975439737380001</v>
+        <v>2.244618723217081</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9877198686900007</v>
+        <v>1.122309361608541</v>
       </c>
       <c r="G63" t="n">
-        <v>1.975439737380001</v>
+        <v>2.244618723217081</v>
       </c>
       <c r="H63" t="n">
         <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>46.88599343450004</v>
+        <v>53.61546808042704</v>
       </c>
       <c r="J63" t="n">
-        <v>77.80383162613802</v>
+        <v>68.69466714935591</v>
       </c>
       <c r="K63" t="n">
-        <v>64.20088750000002</v>
+        <v>34.80382595753745</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CCS</t>
+          <t>SEDG</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -8978,31 +8568,31 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>2.157881548593195</v>
+        <v>2.289534709729163</v>
       </c>
       <c r="F64" t="n">
-        <v>1.078940774296598</v>
+        <v>1.144767354864582</v>
       </c>
       <c r="G64" t="n">
-        <v>2.157881548593195</v>
+        <v>2.289534709729163</v>
       </c>
       <c r="H64" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
-        <v>48.94703871482989</v>
+        <v>55.73836774322908</v>
       </c>
       <c r="J64" t="n">
-        <v>27.04762755849707</v>
+        <v>100.7241168104161</v>
       </c>
       <c r="K64" t="n">
-        <v>11.96855085634731</v>
+        <v>96.33463550211587</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>APPF</t>
+          <t>POWL</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -9012,7 +8602,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -9021,240 +8611,25 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2.244469529700636</v>
+        <v>3.346346743313998</v>
       </c>
       <c r="F65" t="n">
-        <v>1.122234764850318</v>
+        <v>1.673173371656999</v>
       </c>
       <c r="G65" t="n">
-        <v>2.244469529700636</v>
+        <v>3.346346743313998</v>
       </c>
       <c r="H65" t="n">
         <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>53.6117382425159</v>
+        <v>81.15866858284997</v>
       </c>
       <c r="J65" t="n">
-        <v>68.74921277661635</v>
+        <v>86.55237146016611</v>
       </c>
       <c r="K65" t="n">
-        <v>34.59235200822618</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>IIPR</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>2.501249471887475</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1.250624735943738</v>
-      </c>
-      <c r="G66" t="n">
-        <v>2.501249471887475</v>
-      </c>
-      <c r="H66" t="n">
-        <v>10</v>
-      </c>
-      <c r="I66" t="n">
-        <v>57.53123679718689</v>
-      </c>
-      <c r="J66" t="n">
-        <v>20.48796605623379</v>
-      </c>
-      <c r="K66" t="n">
-        <v>8.812130949183873</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>SONO</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>2.602952880103007</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1.301476440051503</v>
-      </c>
-      <c r="G67" t="n">
-        <v>2.602952880103007</v>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
-      </c>
-      <c r="I67" t="n">
-        <v>60.07382200257516</v>
-      </c>
-      <c r="J67" t="n">
-        <v>24.26908572901489</v>
-      </c>
-      <c r="K67" t="n">
-        <v>16.35480754338635</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>SITC</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>3.103316431013909</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1.551658215506954</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3.103316431013909</v>
-      </c>
-      <c r="H68" t="n">
-        <v>15</v>
-      </c>
-      <c r="I68" t="n">
-        <v>70.0829107753477</v>
-      </c>
-      <c r="J68" t="n">
-        <v>9.691558049843884</v>
-      </c>
-      <c r="K68" t="n">
-        <v>4.734046171317861</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>POWL</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>3.334159817973192</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1.667079908986596</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3.334159817973192</v>
-      </c>
-      <c r="H69" t="n">
-        <v>5</v>
-      </c>
-      <c r="I69" t="n">
-        <v>80.85399544932982</v>
-      </c>
-      <c r="J69" t="n">
-        <v>86.37209660517983</v>
-      </c>
-      <c r="K69" t="n">
-        <v>64.92716012681024</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>SAFE</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>3.985396806637777</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1.992698403318888</v>
-      </c>
-      <c r="G70" t="n">
-        <v>3.985396806637777</v>
-      </c>
-      <c r="H70" t="n">
-        <v>15</v>
-      </c>
-      <c r="I70" t="n">
-        <v>92.13492016594444</v>
-      </c>
-      <c r="J70" t="n">
-        <v>6.923673613234472</v>
-      </c>
-      <c r="K70" t="n">
-        <v>3.227460658744025</v>
+        <v>67.65907799726214</v>
       </c>
     </row>
   </sheetData>
